--- a/Collections/Spain/#Spain#Regular#[1934-2001]#circulation_quality.xlsx
+++ b/Collections/Spain/#Spain#Regular#[1934-2001]#circulation_quality.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dart_Alexator\Documents\CoinCollection\Collections\Испания\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DD9486-8F32-42E3-B5F3-5642A84EBEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="1550" yWindow="1800" windowWidth="28800" windowHeight="17740" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5cêntimo" sheetId="3" r:id="rId1"/>
@@ -29,12 +30,15 @@
     <sheet name="2000₧" sheetId="18" r:id="rId15"/>
     <sheet name="Links" sheetId="2" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -42,12 +46,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -55,13 +59,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Obverse year/Real year of stamping</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -98,12 +103,12 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000001000000}">
       <text>
         <r>
           <rPr>
@@ -111,13 +116,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Obverse year/Real year of stamping</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
       <text>
         <r>
           <rPr>
@@ -154,12 +160,12 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -167,13 +173,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Obverse year/Real year of stamping</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -210,12 +217,12 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -223,13 +230,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Obverse year/Real year of stamping</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -245,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -266,12 +274,12 @@
 </file>
 
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -279,13 +287,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Obverse year/Real year of stamping</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -301,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -322,12 +331,12 @@
 </file>
 
 <file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -335,13 +344,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Obverse year/Real year of stamping</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -357,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -378,12 +388,12 @@
 </file>
 
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -391,13 +401,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Obverse year/Real year of stamping</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -413,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -434,12 +445,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -447,13 +458,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Obverse year/Real year of stamping</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -469,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -490,12 +502,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -503,13 +515,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Obverse year/Real year of stamping</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -525,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -546,12 +559,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -559,13 +572,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Obverse year/Real year of stamping</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -581,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -602,12 +616,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -615,13 +629,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Obverse year/Real year of stamping</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -637,7 +652,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -653,7 +668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G2" authorId="0" shapeId="0">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -669,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -685,7 +700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I2" authorId="0" shapeId="0">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -701,7 +716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -722,12 +737,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -735,13 +750,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Obverse year/Real year of stamping</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -757,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -778,12 +794,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -791,13 +807,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Obverse year/Real year of stamping</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -813,7 +830,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -834,12 +851,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
       <text>
         <r>
           <rPr>
@@ -847,13 +864,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Obverse year/Real year of stamping</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
       <text>
         <r>
           <rPr>
@@ -869,7 +887,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
       <text>
         <r>
           <rPr>
@@ -890,12 +908,12 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -903,13 +921,14 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
+            <charset val="204"/>
           </rPr>
           <t>Obverse year/Real year of stamping</t>
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -925,7 +944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -946,7 +965,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2279" uniqueCount="461">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="461">
   <si>
     <t>-</t>
   </si>
@@ -2178,9 +2197,6 @@
     <t>Mintage</t>
   </si>
   <si>
-    <t>Series</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -2329,13 +2345,16 @@
   </si>
   <si>
     <t>Middle convenience set of tables all coins with mintages</t>
+  </si>
+  <si>
+    <t>Subject</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="13" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2361,12 +2380,16 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2403,13 +2426,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -2679,9 +2695,16 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2721,16 +2744,9 @@
     <xf numFmtId="3" fontId="7" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1"/>
+    <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3958,16 +3974,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица4" displayName="Таблица4" ref="A1:C3" totalsRowShown="0">
-  <autoFilter ref="A1:C3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Таблица4" displayName="Таблица4" ref="A1:C3" totalsRowShown="0">
+  <autoFilter ref="A1:C3" xr:uid="{00000000-0009-0000-0100-000002000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" name="№" dataDxfId="151"/>
-    <tableColumn id="2" name="Link" dataDxfId="150" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" name="Description (single table, table set, mintage, prices):" dataDxfId="149"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="151"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="150" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="149"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4269,52 +4285,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="A27" sqref="A27:XFD43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
         <v>409</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+        <v>417</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>408</v>
@@ -4323,15 +4339,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1937</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>414</v>
+        <v>173</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>173</v>
+        <v>413</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="5" t="s">
@@ -4345,7 +4361,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1938</v>
       </c>
@@ -4369,7 +4385,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1939</v>
       </c>
@@ -4393,15 +4409,15 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1940</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>415</v>
+        <v>180</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>180</v>
+        <v>414</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="5" t="s">
@@ -4415,15 +4431,15 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1941</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>415</v>
+        <v>180</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>180</v>
+        <v>414</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="5" t="s">
@@ -4437,7 +4453,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1942</v>
       </c>
@@ -4461,7 +4477,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1943</v>
       </c>
@@ -4485,7 +4501,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1944</v>
       </c>
@@ -4509,15 +4525,15 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1945</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>415</v>
+        <v>180</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>180</v>
+        <v>414</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="5" t="s">
@@ -4531,7 +4547,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1946</v>
       </c>
@@ -4555,7 +4571,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1947</v>
       </c>
@@ -4579,7 +4595,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1948</v>
       </c>
@@ -4603,7 +4619,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1949</v>
       </c>
@@ -4627,7 +4643,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1950</v>
       </c>
@@ -4651,7 +4667,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1951</v>
       </c>
@@ -4675,7 +4691,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1952</v>
       </c>
@@ -4699,15 +4715,15 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1953</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>415</v>
+        <v>180</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>180</v>
+        <v>414</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="5" t="s">
@@ -4870,51 +4886,51 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B38" sqref="B38"/>
+      <selection pane="bottomRight" activeCell="A56" sqref="A56:XFD104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
         <v>409</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>408</v>
@@ -4923,15 +4939,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>143</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="5" t="s">
@@ -4945,15 +4961,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>110</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="6" t="s">
@@ -4967,7 +4983,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1960</v>
       </c>
@@ -4991,15 +5007,15 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="6" t="s">
@@ -5013,7 +5029,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1962</v>
       </c>
@@ -5037,7 +5053,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1963</v>
       </c>
@@ -5061,15 +5077,15 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="5" t="s">
@@ -5083,15 +5099,15 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="6" t="s">
@@ -5105,15 +5121,15 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="5" t="s">
@@ -5127,15 +5143,15 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="6" t="s">
@@ -5149,15 +5165,15 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="5" t="s">
@@ -5171,15 +5187,15 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6" t="s">
@@ -5193,15 +5209,15 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="5" t="s">
@@ -5215,15 +5231,15 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="6" t="s">
@@ -5237,15 +5253,15 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="5" t="s">
@@ -5259,15 +5275,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="6" t="s">
@@ -5281,15 +5297,15 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="5" t="s">
@@ -5303,15 +5319,15 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="6" t="s">
@@ -5325,15 +5341,15 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>236</v>
+        <v>419</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="6" t="s">
@@ -5347,15 +5363,15 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>236</v>
+        <v>419</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="6" t="s">
@@ -5369,15 +5385,15 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>236</v>
+        <v>419</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="6" t="s">
@@ -5391,15 +5407,15 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>236</v>
+        <v>419</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="6" t="s">
@@ -5413,15 +5429,15 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>236</v>
+        <v>419</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="6" t="s">
@@ -5435,15 +5451,15 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>420</v>
+        <v>191</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>191</v>
+        <v>419</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="6" t="s">
@@ -5457,15 +5473,15 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>420</v>
+        <v>191</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>191</v>
+        <v>419</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="6" t="s">
@@ -5479,15 +5495,15 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>420</v>
+        <v>191</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>191</v>
+        <v>419</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="6" t="s">
@@ -5501,18 +5517,18 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1982</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>236</v>
+        <v>419</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>237</v>
@@ -5525,18 +5541,18 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1983</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>236</v>
+        <v>419</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>238</v>
@@ -5552,18 +5568,18 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1984</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>420</v>
+        <v>236</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>236</v>
+        <v>419</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>239</v>
@@ -5579,7 +5595,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1985</v>
       </c>
@@ -5609,7 +5625,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1986</v>
       </c>
@@ -5636,7 +5652,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1987</v>
       </c>
@@ -5660,7 +5676,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1988</v>
       </c>
@@ -5684,7 +5700,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1989</v>
       </c>
@@ -5708,20 +5724,20 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1990</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="E37" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="E37" s="36" t="s">
         <v>295</v>
       </c>
       <c r="F37" s="15">
@@ -5732,20 +5748,20 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1990</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E38" s="34"/>
+        <v>434</v>
+      </c>
+      <c r="E38" s="37"/>
       <c r="F38" s="15">
         <v>0</v>
       </c>
@@ -5754,20 +5770,20 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1991</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>436</v>
-      </c>
-      <c r="E39" s="35" t="s">
+        <v>435</v>
+      </c>
+      <c r="E39" s="38" t="s">
         <v>296</v>
       </c>
       <c r="F39" s="15">
@@ -5778,20 +5794,20 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1991</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>422</v>
+        <v>436</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>435</v>
-      </c>
-      <c r="E40" s="34"/>
+        <v>434</v>
+      </c>
+      <c r="E40" s="37"/>
       <c r="F40" s="15">
         <v>0</v>
       </c>
@@ -5800,20 +5816,20 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1992</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="E41" s="35" t="s">
+        <v>437</v>
+      </c>
+      <c r="E41" s="38" t="s">
         <v>297</v>
       </c>
       <c r="F41" s="15">
@@ -5824,20 +5840,20 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1992</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>439</v>
-      </c>
-      <c r="E42" s="34"/>
+        <v>438</v>
+      </c>
+      <c r="E42" s="37"/>
       <c r="F42" s="15">
         <v>1</v>
       </c>
@@ -5846,15 +5862,15 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1993</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>422</v>
+        <v>299</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>299</v>
+        <v>421</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="6" t="s">
@@ -5868,15 +5884,15 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1994</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>422</v>
+        <v>301</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>301</v>
+        <v>421</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="6" t="s">
@@ -5890,15 +5906,15 @@
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1995</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>422</v>
+        <v>303</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>303</v>
+        <v>421</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="6" t="s">
@@ -5912,15 +5928,15 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>1996</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>422</v>
+        <v>305</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>305</v>
+        <v>421</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="6" t="s">
@@ -5934,15 +5950,15 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1997</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>422</v>
+        <v>307</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>307</v>
+        <v>421</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="6" t="s">
@@ -5956,15 +5972,15 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1998</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>422</v>
+        <v>309</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>309</v>
+        <v>421</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="6" t="s">
@@ -5978,15 +5994,15 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1999</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>422</v>
+        <v>311</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>311</v>
+        <v>421</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="6" t="s">
@@ -6000,15 +6016,15 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2000</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>422</v>
+        <v>314</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>314</v>
+        <v>421</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="6" t="s">
@@ -6022,15 +6038,15 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2001</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>422</v>
+        <v>314</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>314</v>
+        <v>421</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="6" t="s">
@@ -6315,51 +6331,51 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B45" sqref="B45"/>
+      <selection pane="bottomRight" activeCell="A56" sqref="A56:XFD103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
         <v>409</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>408</v>
@@ -6368,15 +6384,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>108</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="5" t="s">
@@ -6390,14 +6406,14 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="13" t="s">
+      <c r="B4" s="18" t="s">
         <v>181</v>
       </c>
+      <c r="C4" s="13"/>
       <c r="D4" s="13"/>
       <c r="E4" s="6" t="s">
         <v>163</v>
@@ -6410,14 +6426,14 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="18" t="s">
         <v>181</v>
       </c>
+      <c r="C5" s="13"/>
       <c r="D5" s="13"/>
       <c r="E5" s="5" t="s">
         <v>165</v>
@@ -6430,7 +6446,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1961</v>
       </c>
@@ -6454,7 +6470,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>1962</v>
       </c>
@@ -6478,7 +6494,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1963</v>
       </c>
@@ -6502,7 +6518,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>1964</v>
       </c>
@@ -6526,7 +6542,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1965</v>
       </c>
@@ -6550,7 +6566,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>1966</v>
       </c>
@@ -6574,15 +6590,15 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="6" t="s">
@@ -6596,15 +6612,15 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>154</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="6" t="s">
@@ -6618,15 +6634,15 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="6" t="s">
@@ -6640,15 +6656,15 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>131</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="6" t="s">
@@ -6662,15 +6678,15 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="6" t="s">
@@ -6684,15 +6700,15 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>136</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="6" t="s">
@@ -6706,15 +6722,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="6" t="s">
@@ -6728,15 +6744,15 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>139</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="6" t="s">
@@ -6750,15 +6766,15 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="6" t="s">
@@ -6772,15 +6788,15 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="6" t="s">
@@ -6794,7 +6810,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1977</v>
       </c>
@@ -6818,15 +6834,15 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="6" t="s">
@@ -6840,15 +6856,15 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="6" t="s">
@@ -6862,15 +6878,15 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="6" t="s">
@@ -6884,15 +6900,15 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>420</v>
+        <v>243</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>243</v>
+        <v>419</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="6" t="s">
@@ -6906,15 +6922,15 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>420</v>
+        <v>243</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>243</v>
+        <v>419</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="6" t="s">
@@ -6928,15 +6944,15 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>420</v>
+        <v>243</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>243</v>
+        <v>419</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="6" t="s">
@@ -6953,18 +6969,18 @@
         <v>193</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1982</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E29" s="6" t="s">
         <v>244</v>
@@ -6980,18 +6996,18 @@
         <v>193</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1983</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>245</v>
@@ -7007,18 +7023,18 @@
         <v>193</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1984</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E31" s="6" t="s">
         <v>25</v>
@@ -7031,7 +7047,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1984</v>
       </c>
@@ -7058,7 +7074,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1985</v>
       </c>
@@ -7085,7 +7101,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1986</v>
       </c>
@@ -7109,7 +7125,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1987</v>
       </c>
@@ -7133,7 +7149,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1988</v>
       </c>
@@ -7157,7 +7173,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1989</v>
       </c>
@@ -7181,18 +7197,18 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1990</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>315</v>
@@ -7205,18 +7221,18 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1990</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>440</v>
+        <v>421</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>316</v>
@@ -7229,7 +7245,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1991</v>
       </c>
@@ -7253,20 +7269,20 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1992</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C41" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="D41" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="D41" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="36" t="s">
         <v>317</v>
       </c>
       <c r="F41" s="15">
@@ -7277,34 +7293,34 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1992</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>433</v>
+        <v>421</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="E42" s="34"/>
+        <v>431</v>
+      </c>
+      <c r="E42" s="37"/>
       <c r="F42" s="15">
         <v>0</v>
       </c>
       <c r="G42" s="8"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1993</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>422</v>
+        <v>319</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>319</v>
+        <v>421</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="6" t="s">
@@ -7318,15 +7334,15 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1994</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>422</v>
+        <v>321</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>321</v>
+        <v>421</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="6" t="s">
@@ -7340,15 +7356,15 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1995</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>422</v>
+        <v>323</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>323</v>
+        <v>421</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="6" t="s">
@@ -7362,15 +7378,15 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>1996</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>422</v>
+        <v>325</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>325</v>
+        <v>421</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="6" t="s">
@@ -7384,15 +7400,15 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1997</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>422</v>
+        <v>327</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>327</v>
+        <v>421</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="6" t="s">
@@ -7406,15 +7422,15 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1998</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="6" t="s">
@@ -7428,15 +7444,15 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1999</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="6" t="s">
@@ -7450,15 +7466,15 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>2000</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="6" t="s">
@@ -7860,51 +7876,51 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:F2"/>
+      <selection pane="bottomRight" activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
         <v>409</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>408</v>
@@ -7913,15 +7929,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>167</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10" t="s">
@@ -7935,15 +7951,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="11" t="s">
@@ -7957,15 +7973,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>169</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10" t="s">
@@ -7979,7 +7995,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1969</v>
       </c>
@@ -8003,15 +8019,15 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
         <v>170</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10" t="s">
@@ -8025,7 +8041,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1970</v>
       </c>
@@ -8049,7 +8065,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1971</v>
       </c>
@@ -8073,7 +8089,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1972</v>
       </c>
@@ -8097,7 +8113,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1973</v>
       </c>
@@ -8121,7 +8137,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1974</v>
       </c>
@@ -8145,7 +8161,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1975</v>
       </c>
@@ -8169,15 +8185,15 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>415</v>
+        <v>203</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>203</v>
+        <v>414</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="11" t="s">
@@ -8191,7 +8207,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1977</v>
       </c>
@@ -8215,7 +8231,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1978</v>
       </c>
@@ -8239,7 +8255,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1979</v>
       </c>
@@ -8263,15 +8279,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1980</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>415</v>
+        <v>191</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>191</v>
+        <v>414</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="11" t="s">
@@ -8285,7 +8301,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1981</v>
       </c>
@@ -8309,18 +8325,18 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1982</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>422</v>
+        <v>174</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>174</v>
+        <v>421</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>329</v>
@@ -8333,18 +8349,18 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1983</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>422</v>
+        <v>174</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>174</v>
+        <v>421</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>330</v>
@@ -8357,18 +8373,18 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1984</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>422</v>
+        <v>174</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>174</v>
+        <v>421</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>331</v>
@@ -8381,18 +8397,18 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1985</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>422</v>
+        <v>174</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>174</v>
+        <v>421</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>332</v>
@@ -8405,18 +8421,18 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1986</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>422</v>
+        <v>174</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>174</v>
+        <v>421</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>333</v>
@@ -8429,7 +8445,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1987</v>
       </c>
@@ -8453,18 +8469,18 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>1988</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>422</v>
+        <v>174</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>174</v>
+        <v>421</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>334</v>
@@ -8477,18 +8493,18 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1989</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>422</v>
+        <v>174</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>174</v>
+        <v>421</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>335</v>
@@ -8501,18 +8517,18 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1990</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>422</v>
+        <v>174</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>174</v>
+        <v>421</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E28" s="11" t="s">
         <v>336</v>
@@ -8525,7 +8541,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1991</v>
       </c>
@@ -8549,18 +8565,18 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1992</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="C30" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="D30" s="13" t="s">
         <v>450</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>451</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>337</v>
@@ -8573,15 +8589,15 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1993</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>422</v>
+        <v>339</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>339</v>
+        <v>421</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="11" t="s">
@@ -8595,15 +8611,15 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1994</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>422</v>
+        <v>341</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>341</v>
+        <v>421</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="11" t="s">
@@ -8617,15 +8633,15 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1995</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>422</v>
+        <v>343</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>343</v>
+        <v>421</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="11" t="s">
@@ -8639,15 +8655,15 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1996</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>422</v>
+        <v>345</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>345</v>
+        <v>421</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="11" t="s">
@@ -8661,15 +8677,15 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>1997</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>422</v>
+        <v>347</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>347</v>
+        <v>421</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="11" t="s">
@@ -8683,18 +8699,18 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1998</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>45</v>
@@ -8707,18 +8723,18 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1999</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>422</v>
+        <v>449</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>348</v>
@@ -8731,15 +8747,15 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>1999</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>422</v>
+        <v>349</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>349</v>
+        <v>421</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="9" t="s">
@@ -8753,7 +8769,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2000</v>
       </c>
@@ -8777,15 +8793,15 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>2001</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>422</v>
+        <v>351</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>351</v>
+        <v>421</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="11" t="s">
@@ -8799,33 +8815,13 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="K41" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="K42" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K43" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K44" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K45" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K46" t="s">
         <v>193</v>
       </c>
     </row>
@@ -9180,51 +9176,51 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:F2"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
         <v>409</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>408</v>
@@ -9233,15 +9229,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1986</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10" t="s">
@@ -9255,15 +9251,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1987</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="10" t="s">
@@ -9277,15 +9273,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1988</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>422</v>
+        <v>355</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>355</v>
+        <v>421</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10" t="s">
@@ -9299,7 +9295,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1989</v>
       </c>
@@ -9323,15 +9319,15 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1990</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>422</v>
+        <v>357</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>357</v>
+        <v>421</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10" t="s">
@@ -9345,15 +9341,15 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1991</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>422</v>
+        <v>359</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>359</v>
+        <v>421</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10" t="s">
@@ -9367,15 +9363,15 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1992</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>422</v>
+        <v>361</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>361</v>
+        <v>421</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="10" t="s">
@@ -9389,15 +9385,15 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1992</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>422</v>
+        <v>362</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>362</v>
+        <v>421</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="9" t="s">
@@ -9411,15 +9407,15 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1993</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>422</v>
+        <v>364</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="D11" s="13"/>
       <c r="E11" s="10" t="s">
@@ -9433,15 +9429,15 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1994</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>422</v>
+        <v>366</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>366</v>
+        <v>421</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="10" t="s">
@@ -9455,15 +9451,15 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1995</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>422</v>
+        <v>368</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>368</v>
+        <v>421</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="10" t="s">
@@ -9477,15 +9473,15 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1996</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>422</v>
+        <v>370</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>370</v>
+        <v>421</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="10" t="s">
@@ -9499,15 +9495,15 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1997</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>422</v>
+        <v>372</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>372</v>
+        <v>421</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="10" t="s">
@@ -9521,15 +9517,15 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1998</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="10" t="s">
@@ -9543,15 +9539,15 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1999</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="10" t="s">
@@ -9565,15 +9561,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>2000</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>422</v>
+        <v>375</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>375</v>
+        <v>421</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="9" t="s">
@@ -9587,12 +9583,12 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J20" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="J21" t="s">
         <v>193</v>
       </c>
@@ -9712,51 +9708,51 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K39" sqref="K39"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
         <v>409</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>408</v>
@@ -9765,15 +9761,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1987</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10" t="s">
@@ -9787,15 +9783,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1988</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="10" t="s">
@@ -9809,15 +9805,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1989</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10" t="s">
@@ -9831,15 +9827,15 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1990</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10" t="s">
@@ -9853,7 +9849,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1991</v>
       </c>
@@ -9877,7 +9873,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1992</v>
       </c>
@@ -9901,18 +9897,18 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1993</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>381</v>
@@ -9925,18 +9921,18 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1994</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>382</v>
@@ -9949,18 +9945,18 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1995</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>383</v>
@@ -9973,18 +9969,18 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1996</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>384</v>
@@ -9997,18 +9993,18 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1997</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>385</v>
@@ -10021,18 +10017,18 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1998</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E14" s="10" t="s">
         <v>386</v>
@@ -10045,18 +10041,18 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1999</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>387</v>
@@ -10069,18 +10065,18 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>388</v>
@@ -10093,18 +10089,18 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2001</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>422</v>
+        <v>380</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>389</v>
@@ -10181,51 +10177,51 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G22" sqref="G22"/>
+      <selection pane="bottomRight" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
         <v>409</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+        <v>456</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>408</v>
@@ -10234,15 +10230,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1994</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>422</v>
+        <v>391</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10" t="s">
@@ -10256,15 +10252,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1995</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>422</v>
+        <v>393</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="10" t="s">
@@ -10278,15 +10274,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1996</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>395</v>
+        <v>421</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10" t="s">
@@ -10300,15 +10296,15 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1997</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10" t="s">
@@ -10322,15 +10318,15 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1998</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10" t="s">
@@ -10344,15 +10340,15 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1999</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>422</v>
+        <v>401</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10" t="s">
@@ -10366,15 +10362,15 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2000</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="10" t="s">
@@ -10388,15 +10384,15 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2001</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>405</v>
+        <v>421</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="10" t="s">
@@ -10440,7 +10436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10450,25 +10446,25 @@
       <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="61.85546875" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.26953125" customWidth="1"/>
+    <col min="3" max="3" width="61.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="24" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -10476,10 +10472,10 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -10487,13 +10483,13 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2" location="%D0%92%D1%80%D0%B5%D0%BC%D0%B5%D0%BD%D0%BD%D0%BE%D0%B5_%D0%BF%D1%80%D0%B0%D0%B2%D0%B8%D1%82%D0%B5%D0%BB%D1%8C%D1%81%D1%82%D0%B2%D0%BE_(1868%E2%80%941871_%D0%B3%D0%BE%D0%B4%D1%8B)"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0F00-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" location="%D0%92%D1%80%D0%B5%D0%BC%D0%B5%D0%BD%D0%BD%D0%BE%D0%B5_%D0%BF%D1%80%D0%B0%D0%B2%D0%B8%D1%82%D0%B5%D0%BB%D1%8C%D1%81%D1%82%D0%B2%D0%BE_(1868%E2%80%941871_%D0%B3%D0%BE%D0%B4%D1%8B)" xr:uid="{00000000-0004-0000-0F00-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
@@ -10504,52 +10500,52 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomRight" activeCell="A29" sqref="A29:XFD50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.453125" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
         <v>409</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>408</v>
@@ -10558,15 +10554,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1938</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>416</v>
+        <v>174</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>174</v>
+        <v>415</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="11" t="s">
@@ -10580,7 +10576,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1939</v>
       </c>
@@ -10604,15 +10600,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1940</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>415</v>
+        <v>180</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>180</v>
+        <v>414</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="9" t="s">
@@ -10626,15 +10622,15 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1941</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>415</v>
+        <v>180</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>180</v>
+        <v>414</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="9" t="s">
@@ -10648,7 +10644,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1942</v>
       </c>
@@ -10672,7 +10668,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1943</v>
       </c>
@@ -10696,7 +10692,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1944</v>
       </c>
@@ -10720,15 +10716,15 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1945</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>415</v>
+        <v>180</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>180</v>
+        <v>414</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="9" t="s">
@@ -10742,7 +10738,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1946</v>
       </c>
@@ -10766,7 +10762,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1947</v>
       </c>
@@ -10790,7 +10786,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1948</v>
       </c>
@@ -10814,7 +10810,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1949</v>
       </c>
@@ -10838,7 +10834,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1950</v>
       </c>
@@ -10862,7 +10858,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1951</v>
       </c>
@@ -10886,7 +10882,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1952</v>
       </c>
@@ -10910,15 +10906,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1953</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>415</v>
+        <v>180</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>180</v>
+        <v>414</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="9" t="s">
@@ -10932,7 +10928,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1954</v>
       </c>
@@ -10956,7 +10952,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1955</v>
       </c>
@@ -10980,7 +10976,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1956</v>
       </c>
@@ -11004,7 +11000,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1957</v>
       </c>
@@ -11028,7 +11024,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1958</v>
       </c>
@@ -11052,15 +11048,15 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>1959</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="9" t="s">
@@ -11291,52 +11287,52 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.1796875" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
         <v>409</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>408</v>
@@ -11345,15 +11341,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1934</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>414</v>
+        <v>172</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>172</v>
+        <v>413</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="5" t="s">
@@ -11367,7 +11363,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1935</v>
       </c>
@@ -11391,7 +11387,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1936</v>
       </c>
@@ -11415,15 +11411,15 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1937</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>415</v>
+        <v>182</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>182</v>
+        <v>414</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="5" t="s">
@@ -11437,15 +11433,15 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1938</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>414</v>
+        <v>176</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>176</v>
+        <v>413</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="6" t="s">
@@ -11557,51 +11553,51 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
         <v>409</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>408</v>
@@ -11610,15 +11606,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>414</v>
+        <v>177</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>177</v>
+        <v>413</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10" t="s">
@@ -11632,7 +11628,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1935</v>
       </c>
@@ -11656,15 +11652,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>414</v>
+        <v>177</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>177</v>
+        <v>413</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10" t="s">
@@ -11678,7 +11674,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1937</v>
       </c>
@@ -11702,7 +11698,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1938</v>
       </c>
@@ -11726,7 +11722,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1939</v>
       </c>
@@ -11750,7 +11746,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1940</v>
       </c>
@@ -11774,7 +11770,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1941</v>
       </c>
@@ -11798,7 +11794,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1942</v>
       </c>
@@ -11822,7 +11818,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1943</v>
       </c>
@@ -11846,7 +11842,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1944</v>
       </c>
@@ -11870,7 +11866,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1945</v>
       </c>
@@ -11894,7 +11890,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1946</v>
       </c>
@@ -11918,7 +11914,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1947</v>
       </c>
@@ -11942,7 +11938,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1948</v>
       </c>
@@ -11966,7 +11962,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="12">
         <v>1949</v>
       </c>
@@ -11990,7 +11986,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1950</v>
       </c>
@@ -12014,15 +12010,15 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>415</v>
+        <v>183</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>183</v>
+        <v>414</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="9" t="s">
@@ -12036,15 +12032,15 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>415</v>
+        <v>184</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>184</v>
+        <v>414</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="9" t="s">
@@ -12058,15 +12054,15 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>415</v>
+        <v>184</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>184</v>
+        <v>414</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="9" t="s">
@@ -12080,15 +12076,15 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>415</v>
+        <v>184</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>184</v>
+        <v>414</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="9" t="s">
@@ -12102,15 +12098,15 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>415</v>
+        <v>184</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>184</v>
+        <v>414</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="9" t="s">
@@ -12124,7 +12120,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>1955</v>
       </c>
@@ -12148,15 +12144,15 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>415</v>
+        <v>184</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>184</v>
+        <v>414</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="9" t="s">
@@ -12170,7 +12166,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1957</v>
       </c>
@@ -12194,7 +12190,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1958</v>
       </c>
@@ -12218,7 +12214,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1959</v>
       </c>
@@ -12242,7 +12238,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1960</v>
       </c>
@@ -12266,7 +12262,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1961</v>
       </c>
@@ -12290,15 +12286,15 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>415</v>
+        <v>184</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>184</v>
+        <v>414</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="9" t="s">
@@ -12312,15 +12308,15 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>415</v>
+        <v>184</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>184</v>
+        <v>414</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="9" t="s">
@@ -12334,15 +12330,15 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>415</v>
+        <v>184</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>184</v>
+        <v>414</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="9" t="s">
@@ -12356,15 +12352,15 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>415</v>
+        <v>184</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>184</v>
+        <v>414</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="9" t="s">
@@ -12378,7 +12374,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>1966</v>
       </c>
@@ -12402,15 +12398,15 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>415</v>
+        <v>185</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>185</v>
+        <v>414</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="9" t="s">
@@ -12424,15 +12420,15 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>415</v>
+        <v>185</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>185</v>
+        <v>414</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="9" t="s">
@@ -12446,15 +12442,15 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>415</v>
+        <v>185</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>185</v>
+        <v>414</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="9" t="s">
@@ -12468,15 +12464,15 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>415</v>
+        <v>185</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>185</v>
+        <v>414</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="9" t="s">
@@ -12490,15 +12486,15 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>415</v>
+        <v>185</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>185</v>
+        <v>414</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="9" t="s">
@@ -12512,15 +12508,15 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>415</v>
+        <v>185</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>185</v>
+        <v>414</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="9" t="s">
@@ -12534,15 +12530,15 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>415</v>
+        <v>185</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>185</v>
+        <v>414</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="9" t="s">
@@ -12556,15 +12552,15 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>415</v>
+        <v>185</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>185</v>
+        <v>414</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="9" t="s">
@@ -12578,15 +12574,15 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>415</v>
+        <v>185</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>185</v>
+        <v>414</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="9" t="s">
@@ -12600,15 +12596,15 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>420</v>
+        <v>185</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>185</v>
+        <v>419</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="6" t="s">
@@ -12622,7 +12618,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1977</v>
       </c>
@@ -12646,7 +12642,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1978</v>
       </c>
@@ -12670,7 +12666,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1979</v>
       </c>
@@ -12694,15 +12690,15 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>420</v>
+        <v>191</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>191</v>
+        <v>419</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="6" t="s">
@@ -13069,84 +13065,84 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C31" sqref="C31"/>
+      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="10" width="3.85546875" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="7" width="12.453125" customWidth="1"/>
+    <col min="8" max="10" width="3.81640625" customWidth="1"/>
+    <col min="11" max="11" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="D1" s="29"/>
+      <c r="E1" s="30" t="s">
+        <v>409</v>
+      </c>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="17" t="s">
         <v>411</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30" t="s">
-        <v>425</v>
-      </c>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="17" t="s">
+      <c r="D2" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>408</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>408</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>414</v>
+        <v>177</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>177</v>
+        <v>413</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10" t="s">
@@ -13172,7 +13168,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1935</v>
       </c>
@@ -13208,7 +13204,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1936</v>
       </c>
@@ -13244,15 +13240,15 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1937</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>414</v>
+        <v>173</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>173</v>
+        <v>413</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10" t="s">
@@ -13278,7 +13274,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1938</v>
       </c>
@@ -13314,7 +13310,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1939</v>
       </c>
@@ -13350,7 +13346,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1940</v>
       </c>
@@ -13386,7 +13382,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1941</v>
       </c>
@@ -13422,7 +13418,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1942</v>
       </c>
@@ -13458,7 +13454,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1943</v>
       </c>
@@ -13494,15 +13490,15 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1944</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>415</v>
+        <v>186</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>186</v>
+        <v>414</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="9" t="s">
@@ -13528,7 +13524,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1945</v>
       </c>
@@ -13564,7 +13560,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1946</v>
       </c>
@@ -13600,7 +13596,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1947</v>
       </c>
@@ -13636,15 +13632,15 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="9" t="s">
@@ -13670,15 +13666,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="9" t="s">
@@ -13704,15 +13700,15 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="12" t="s">
         <v>59</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="9" t="s">
@@ -13738,15 +13734,15 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" s="12" t="s">
         <v>60</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="9" t="s">
@@ -13772,15 +13768,15 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" s="12" t="s">
         <v>61</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="9" t="s">
@@ -13806,15 +13802,15 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="12" t="s">
         <v>62</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="9" t="s">
@@ -13840,15 +13836,15 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" s="12" t="s">
         <v>63</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="9" t="s">
@@ -13874,15 +13870,15 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="9" t="s">
@@ -13908,7 +13904,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" s="12">
         <v>1955</v>
       </c>
@@ -13944,15 +13940,15 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="9" t="s">
@@ -13978,7 +13974,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>1957</v>
       </c>
@@ -14014,7 +14010,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1958</v>
       </c>
@@ -14050,7 +14046,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1959</v>
       </c>
@@ -14086,15 +14082,15 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="9" t="s">
@@ -14120,15 +14116,15 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="9" t="s">
@@ -14154,15 +14150,15 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="9" t="s">
@@ -14188,15 +14184,15 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="9" t="s">
@@ -14222,15 +14218,15 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="9" t="s">
@@ -14256,15 +14252,15 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="9" t="s">
@@ -14290,15 +14286,15 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="9" t="s">
@@ -14324,15 +14320,15 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="9" t="s">
@@ -14358,15 +14354,15 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="9" t="s">
@@ -14392,15 +14388,15 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" s="12" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="9" t="s">
@@ -14426,15 +14422,15 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="9" t="s">
@@ -14460,15 +14456,15 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="9" t="s">
@@ -14494,15 +14490,15 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="9" t="s">
@@ -14528,15 +14524,15 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="9" t="s">
@@ -14562,15 +14558,15 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="9" t="s">
@@ -14596,15 +14592,15 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="9" t="s">
@@ -14630,15 +14626,15 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="9" t="s">
@@ -14664,15 +14660,15 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>415</v>
+        <v>187</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>187</v>
+        <v>414</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="9" t="s">
@@ -14698,15 +14694,15 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>420</v>
+        <v>203</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>203</v>
+        <v>419</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="9" t="s">
@@ -14732,15 +14728,15 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>420</v>
+        <v>203</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>203</v>
+        <v>419</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="9" t="s">
@@ -14766,15 +14762,15 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>420</v>
+        <v>203</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>203</v>
+        <v>419</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="9" t="s">
@@ -14800,15 +14796,15 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>420</v>
+        <v>203</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>203</v>
+        <v>419</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="16" t="s">
@@ -14834,15 +14830,15 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>420</v>
+        <v>203</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>203</v>
+        <v>419</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="16" t="s">
@@ -14871,15 +14867,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>420</v>
+        <v>203</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>203</v>
+        <v>419</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="9" t="s">
@@ -14908,15 +14904,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>420</v>
+        <v>203</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>203</v>
+        <v>419</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="9" t="s">
@@ -14945,15 +14941,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>420</v>
+        <v>191</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>191</v>
+        <v>419</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="9" t="s">
@@ -14982,15 +14978,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>420</v>
+        <v>191</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>191</v>
+        <v>419</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="9" t="s">
@@ -15019,18 +15015,18 @@
         <v>193</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>420</v>
+        <v>191</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>191</v>
+        <v>419</v>
       </c>
       <c r="D57" s="13"/>
-      <c r="E57" s="32" t="s">
+      <c r="E57" s="35" t="s">
         <v>208</v>
       </c>
       <c r="F57" s="16" t="s">
@@ -15056,18 +15052,18 @@
         <v>193</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>1982</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>406</v>
+        <v>419</v>
       </c>
       <c r="D58" s="13"/>
-      <c r="E58" s="24"/>
+      <c r="E58" s="27"/>
       <c r="F58" s="16" t="s">
         <v>0</v>
       </c>
@@ -15088,15 +15084,15 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>1983</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="9" t="s">
@@ -15122,15 +15118,15 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>1984</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="9" t="s">
@@ -15156,15 +15152,15 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>1985</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="9" t="s">
@@ -15190,15 +15186,15 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>1986</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="9" t="s">
@@ -15227,15 +15223,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>1987</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="9" t="s">
@@ -15264,15 +15260,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>1988</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="9" t="s">
@@ -15301,15 +15297,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>1989</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="9" t="s">
@@ -15338,15 +15334,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>1990</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="9" t="s">
@@ -15375,15 +15371,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>1991</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="9" t="s">
@@ -15412,15 +15408,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>1992</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="9" t="s">
@@ -15449,15 +15445,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>1993</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="9" t="s">
@@ -15486,15 +15482,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>1994</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="9" t="s">
@@ -15523,15 +15519,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>1995</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="9" t="s">
@@ -15560,15 +15556,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>1996</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="9" t="s">
@@ -15597,15 +15593,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>1997</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="9" t="s">
@@ -15634,15 +15630,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>1998</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="9" t="s">
@@ -15671,15 +15667,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>1999</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="9" t="s">
@@ -15705,15 +15701,15 @@
         <v/>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>2000</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="9" t="s">
@@ -15739,15 +15735,15 @@
         <v/>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>2001</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>422</v>
+        <v>246</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>246</v>
+        <v>421</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="9" t="s">
@@ -16112,51 +16108,51 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
         <v>409</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>408</v>
@@ -16165,15 +16161,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1982</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>420</v>
+        <v>219</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>219</v>
+        <v>419</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10" t="s">
@@ -16187,7 +16183,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1983</v>
       </c>
@@ -16211,15 +16207,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1984</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>420</v>
+        <v>219</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>219</v>
+        <v>419</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="9" t="s">
@@ -16297,51 +16293,51 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
         <v>409</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>408</v>
@@ -16350,15 +16346,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10" t="s">
@@ -16372,7 +16368,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="12">
         <v>1955</v>
       </c>
@@ -16396,15 +16392,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="9" t="s">
@@ -16418,7 +16414,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1957</v>
       </c>
@@ -16442,7 +16438,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1958</v>
       </c>
@@ -16466,7 +16462,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1959</v>
       </c>
@@ -16490,7 +16486,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1960</v>
       </c>
@@ -16514,7 +16510,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1961</v>
       </c>
@@ -16538,7 +16534,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1962</v>
       </c>
@@ -16562,7 +16558,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1963</v>
       </c>
@@ -16586,7 +16582,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1964</v>
       </c>
@@ -16610,7 +16606,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1965</v>
       </c>
@@ -16634,7 +16630,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1966</v>
       </c>
@@ -16658,7 +16654,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1967</v>
       </c>
@@ -16682,15 +16678,15 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="9" t="s">
@@ -16704,15 +16700,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="9" t="s">
@@ -16726,15 +16722,15 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="9" t="s">
@@ -16748,15 +16744,15 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="9" t="s">
@@ -16851,51 +16847,51 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H40" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
         <v>409</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+        <v>427</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>408</v>
@@ -16904,15 +16900,15 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>102</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>415</v>
+        <v>188</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>188</v>
+        <v>414</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10" t="s">
@@ -16926,15 +16922,15 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>415</v>
+        <v>188</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>188</v>
+        <v>414</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="11" t="s">
@@ -16948,15 +16944,15 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>415</v>
+        <v>188</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>188</v>
+        <v>414</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10" t="s">
@@ -16970,15 +16966,15 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>415</v>
+        <v>188</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>188</v>
+        <v>414</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10" t="s">
@@ -16992,7 +16988,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1953</v>
       </c>
@@ -17016,7 +17012,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1954</v>
       </c>
@@ -17040,7 +17036,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1955</v>
       </c>
@@ -17064,7 +17060,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1956</v>
       </c>
@@ -17088,7 +17084,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1957</v>
       </c>
@@ -17112,15 +17108,15 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="12" t="s">
         <v>108</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="11" t="s">
@@ -17134,15 +17130,15 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="12" t="s">
         <v>120</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="10" t="s">
@@ -17156,15 +17152,15 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="12" t="s">
         <v>113</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="11" t="s">
@@ -17178,15 +17174,15 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="12" t="s">
         <v>119</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="10" t="s">
@@ -17200,15 +17196,15 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="11" t="s">
@@ -17222,15 +17218,15 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="10" t="s">
@@ -17244,15 +17240,15 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="11" t="s">
@@ -17266,15 +17262,15 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="10" t="s">
@@ -17288,15 +17284,15 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="11" t="s">
@@ -17310,15 +17306,15 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="10" t="s">
@@ -17332,15 +17328,15 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="11" t="s">
@@ -17354,15 +17350,15 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="10" t="s">
@@ -17376,15 +17372,15 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="11" t="s">
@@ -17398,15 +17394,15 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="10" t="s">
@@ -17420,15 +17416,15 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="11" t="s">
@@ -17442,15 +17438,15 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="10" t="s">
@@ -17464,15 +17460,15 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="11" t="s">
@@ -17486,15 +17482,15 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>415</v>
+        <v>181</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>181</v>
+        <v>414</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="10" t="s">
@@ -17508,15 +17504,15 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="11" t="s">
@@ -17530,15 +17526,15 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="11" t="s">
@@ -17552,15 +17548,15 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="11" t="s">
@@ -17574,15 +17570,15 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="11" t="s">
@@ -17596,15 +17592,15 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>420</v>
+        <v>216</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>216</v>
+        <v>419</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="11" t="s">
@@ -17618,15 +17614,15 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>420</v>
+        <v>227</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>227</v>
+        <v>419</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="11" t="s">
@@ -17640,15 +17636,15 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>420</v>
+        <v>227</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>227</v>
+        <v>419</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="11" t="s">
@@ -17662,15 +17658,15 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>420</v>
+        <v>227</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>227</v>
+        <v>419</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="11" t="s">
@@ -17684,15 +17680,15 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>420</v>
+        <v>227</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>227</v>
+        <v>419</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="11" t="s">
@@ -17706,15 +17702,15 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>1982</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>420</v>
+        <v>231</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>231</v>
+        <v>419</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="11" t="s">
@@ -17728,15 +17724,15 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>1983</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>420</v>
+        <v>231</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>231</v>
+        <v>419</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="11" t="s">
@@ -17750,15 +17746,15 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>1984</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>420</v>
+        <v>231</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>231</v>
+        <v>419</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="11" t="s">
@@ -17772,7 +17768,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>1985</v>
       </c>
@@ -17796,7 +17792,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>1986</v>
       </c>
@@ -17820,7 +17816,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>1987</v>
       </c>
@@ -17844,7 +17840,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>1988</v>
       </c>
@@ -17868,18 +17864,18 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>1989</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>422</v>
+        <v>216</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>216</v>
+        <v>421</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E46" s="14" t="s">
         <v>230</v>
@@ -17892,15 +17888,15 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>1989</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>422</v>
+        <v>265</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="14" t="s">
@@ -17914,15 +17910,15 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>1990</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>422</v>
+        <v>265</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="14" t="s">
@@ -17939,15 +17935,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>1991</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>422</v>
+        <v>265</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="14" t="s">
@@ -17964,15 +17960,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>1992</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>422</v>
+        <v>265</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="14" t="s">
@@ -17989,15 +17985,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>1993</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>422</v>
+        <v>267</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>267</v>
+        <v>421</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="14" t="s">
@@ -18014,15 +18010,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>1994</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>422</v>
+        <v>269</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>269</v>
+        <v>421</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="14" t="s">
@@ -18039,15 +18035,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1995</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>422</v>
+        <v>271</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>271</v>
+        <v>421</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="14" t="s">
@@ -18064,15 +18060,15 @@
         <v>193</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>1996</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>422</v>
+        <v>273</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>273</v>
+        <v>421</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="14" t="s">
@@ -18086,15 +18082,15 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>1997</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>422</v>
+        <v>275</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>275</v>
+        <v>421</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="14" t="s">
@@ -18108,15 +18104,15 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>1998</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>422</v>
+        <v>265</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="14" t="s">
@@ -18130,15 +18126,15 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>1999</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>422</v>
+        <v>277</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>277</v>
+        <v>421</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="14" t="s">
@@ -18152,15 +18148,15 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>2000</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>422</v>
+        <v>265</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="14" t="s">
@@ -18174,15 +18170,15 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>2001</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>422</v>
+        <v>265</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>265</v>
+        <v>421</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="14" t="s">
@@ -18362,51 +18358,51 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" sqref="A1:A2"/>
+      <selection pane="bottomRight" activeCell="A23" sqref="A23:XFD40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="24.85546875" style="19" customWidth="1"/>
-    <col min="3" max="4" width="24.85546875" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" customWidth="1"/>
-    <col min="6" max="6" width="3.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="24.81640625" style="19" customWidth="1"/>
+    <col min="3" max="4" width="24.81640625" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" customWidth="1"/>
+    <col min="6" max="6" width="3.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
         <v>407</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="26" t="s">
+        <v>460</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>410</v>
       </c>
-      <c r="C1" s="25" t="s">
-        <v>411</v>
-      </c>
-      <c r="D1" s="26"/>
+      <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
         <v>409</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
+        <v>428</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>412</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>413</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>408</v>
@@ -18415,18 +18411,18 @@
         <v>408</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1983</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>278</v>
@@ -18439,18 +18435,18 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>1984</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>279</v>
@@ -18463,18 +18459,18 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>1985</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>280</v>
@@ -18487,7 +18483,7 @@
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>1986</v>
       </c>
@@ -18511,7 +18507,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1987</v>
       </c>
@@ -18535,7 +18531,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1988</v>
       </c>
@@ -18559,7 +18555,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>1989</v>
       </c>
@@ -18583,7 +18579,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>1990</v>
       </c>
@@ -18607,7 +18603,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>1991</v>
       </c>
@@ -18631,18 +18627,18 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>1992</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>281</v>
@@ -18655,15 +18651,15 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1993</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>422</v>
+        <v>283</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>283</v>
+        <v>421</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="10" t="s">
@@ -18677,15 +18673,15 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1994</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>422</v>
+        <v>285</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>285</v>
+        <v>421</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="11" t="s">
@@ -18699,15 +18695,15 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>1995</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>422</v>
+        <v>287</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>287</v>
+        <v>421</v>
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="10" t="s">
@@ -18721,15 +18717,15 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>1996</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>422</v>
+        <v>289</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>289</v>
+        <v>421</v>
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="11" t="s">
@@ -18743,15 +18739,15 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>1997</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>422</v>
+        <v>291</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>291</v>
+        <v>421</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="10" t="s">
@@ -18765,18 +18761,18 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1998</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>292</v>
@@ -18789,18 +18785,18 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1999</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>293</v>
@@ -18813,18 +18809,18 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>2000</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>294</v>

--- a/Collections/Spain/#Spain#Regular#[1934-2001]#circulation_quality.xlsx
+++ b/Collections/Spain/#Spain#Regular#[1934-2001]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DD9486-8F32-42E3-B5F3-5642A84EBEDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF8C8B1-287B-4577-B5A4-4287457E2FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1550" yWindow="1800" windowWidth="28800" windowHeight="17740" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10980" yWindow="2600" windowWidth="26900" windowHeight="16750" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5cêntimo" sheetId="3" r:id="rId1"/>
@@ -2751,6 +2751,15 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="152">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -3943,15 +3952,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -3981,9 +3981,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="151"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="150" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="149"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -4756,7 +4756,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F5">
-    <cfRule type="containsText" dxfId="148" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4773,7 +4773,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F10">
-    <cfRule type="containsText" dxfId="147" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4790,7 +4790,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F18">
-    <cfRule type="containsText" dxfId="146" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4807,7 +4807,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="145" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4824,7 +4824,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="144" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4841,7 +4841,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="143" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4858,7 +4858,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="142" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4875,7 +4875,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="141" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4889,11 +4889,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A56" sqref="A56:XFD104"/>
+      <selection pane="bottomRight" activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5899,11 +5899,11 @@
         <v>300</v>
       </c>
       <c r="F44" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G44" s="8" t="str">
         <f t="shared" si="0"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -6082,7 +6082,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="65" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6099,7 +6099,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="64" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6116,7 +6116,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="63" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6133,7 +6133,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F36">
-    <cfRule type="containsText" dxfId="62" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6150,7 +6150,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F11">
-    <cfRule type="containsText" dxfId="61" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6167,7 +6167,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F14">
-    <cfRule type="containsText" dxfId="60" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6184,7 +6184,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F17">
-    <cfRule type="containsText" dxfId="59" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6201,7 +6201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F20">
-    <cfRule type="containsText" dxfId="58" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6218,7 +6218,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21:F23">
-    <cfRule type="containsText" dxfId="57" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6235,7 +6235,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F31">
-    <cfRule type="containsText" dxfId="56" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6252,7 +6252,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="55" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6269,7 +6269,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="54" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6286,7 +6286,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="53" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6303,7 +6303,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F51">
-    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6320,7 +6320,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="51" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7508,7 +7508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F15">
-    <cfRule type="containsText" dxfId="50" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7525,7 +7525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17:F20">
-    <cfRule type="containsText" dxfId="49" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7542,7 +7542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="48" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7559,7 +7559,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7576,7 +7576,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="containsText" dxfId="46" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7593,7 +7593,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7610,7 +7610,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="containsText" dxfId="44" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7627,7 +7627,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7644,7 +7644,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="42" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7661,7 +7661,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="41" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7678,7 +7678,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7695,7 +7695,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41 F43:F44">
-    <cfRule type="containsText" dxfId="39" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7712,7 +7712,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F47">
-    <cfRule type="containsText" dxfId="38" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7729,7 +7729,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F50">
-    <cfRule type="containsText" dxfId="37" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7746,7 +7746,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F25">
-    <cfRule type="containsText" dxfId="36" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7763,7 +7763,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F28">
-    <cfRule type="containsText" dxfId="35" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7780,7 +7780,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F31">
-    <cfRule type="containsText" dxfId="34" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7797,7 +7797,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="containsText" dxfId="33" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7814,7 +7814,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="32" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7831,7 +7831,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="containsText" dxfId="31" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7848,7 +7848,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7865,7 +7865,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8832,7 +8832,7 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <conditionalFormatting sqref="F40">
-    <cfRule type="containsText" dxfId="28" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8849,7 +8849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="27" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="30" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8866,7 +8866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8:F13">
-    <cfRule type="containsText" dxfId="26" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8883,7 +8883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F17">
-    <cfRule type="containsText" dxfId="25" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8900,7 +8900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8917,7 +8917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="23" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8934,7 +8934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="22" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8951,7 +8951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8968,7 +8968,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="20" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8985,7 +8985,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="containsText" dxfId="19" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9002,7 +9002,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9019,7 +9019,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="17" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9036,7 +9036,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9053,7 +9053,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F24">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9070,7 +9070,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F28">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9087,7 +9087,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F32">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9104,7 +9104,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:F35">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9121,7 +9121,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9612,7 +9612,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="9" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9629,7 +9629,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9646,7 +9646,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="7" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9663,7 +9663,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9680,7 +9680,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F9">
-    <cfRule type="containsText" dxfId="5" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9697,7 +9697,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F17">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10132,12 +10132,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F6 F9:F17">
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10154,7 +10154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10180,7 +10180,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -10425,7 +10425,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F10">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11089,7 +11089,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="140" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11106,7 +11106,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="139" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11123,7 +11123,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="138" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11140,7 +11140,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="137" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11157,7 +11157,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F17">
-    <cfRule type="containsText" dxfId="136" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11174,7 +11174,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19:F23">
-    <cfRule type="containsText" dxfId="135" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11191,7 +11191,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="134" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11208,7 +11208,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="133" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11225,7 +11225,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="132" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11242,7 +11242,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="131" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11259,7 +11259,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="130" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11276,7 +11276,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="129" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11474,7 +11474,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="128" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11491,7 +11491,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="127" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11508,7 +11508,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="126" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11525,7 +11525,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="125" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11542,7 +11542,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="124" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12731,7 +12731,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="123" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12748,7 +12748,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F19">
-    <cfRule type="containsText" dxfId="122" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12765,7 +12765,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="121" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12782,7 +12782,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="120" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12799,7 +12799,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="119" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12816,7 +12816,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="118" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12833,7 +12833,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="117" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12850,7 +12850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="116" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12867,7 +12867,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="containsText" dxfId="115" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12884,7 +12884,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="114" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12901,7 +12901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="113" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12918,7 +12918,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="112" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12935,7 +12935,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="111" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12952,7 +12952,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F43">
-    <cfRule type="containsText" dxfId="110" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12969,7 +12969,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F39">
-    <cfRule type="containsText" dxfId="109" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12986,7 +12986,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F35">
-    <cfRule type="containsText" dxfId="108" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13003,7 +13003,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="107" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13020,7 +13020,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F24">
-    <cfRule type="containsText" dxfId="106" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13037,7 +13037,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="105" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13054,7 +13054,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="104" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15791,7 +15791,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="containsText" dxfId="103" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15808,7 +15808,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H12">
-    <cfRule type="containsText" dxfId="102" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15825,7 +15825,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H16">
-    <cfRule type="containsText" dxfId="101" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15842,7 +15842,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="100" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15859,7 +15859,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H29">
-    <cfRule type="containsText" dxfId="99" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15876,7 +15876,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="98" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15893,7 +15893,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="97" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15910,7 +15910,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="96" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15927,7 +15927,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H24">
-    <cfRule type="containsText" dxfId="95" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15944,7 +15944,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="94" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15961,7 +15961,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H50 H53:H57">
-    <cfRule type="containsText" dxfId="93" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15978,7 +15978,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:H77">
-    <cfRule type="containsText" dxfId="92" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15995,7 +15995,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="containsText" dxfId="91" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16012,7 +16012,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I50 I52:I77">
-    <cfRule type="containsText" dxfId="90" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16029,7 +16029,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J51 J53:J77">
-    <cfRule type="containsText" dxfId="89" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16046,7 +16046,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="containsText" dxfId="88" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16063,7 +16063,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="containsText" dxfId="87" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16080,7 +16080,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="containsText" dxfId="86" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16097,7 +16097,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="containsText" dxfId="85" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16248,7 +16248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="84" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16265,7 +16265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="83" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16282,7 +16282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="82" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16785,7 +16785,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="81" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16802,7 +16802,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="80" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16819,7 +16819,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F20">
-    <cfRule type="containsText" dxfId="79" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16836,7 +16836,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="78" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18211,7 +18211,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F11">
-    <cfRule type="containsText" dxfId="77" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18228,7 +18228,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="76" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18245,7 +18245,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="75" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18262,7 +18262,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="74" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18279,7 +18279,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F45">
-    <cfRule type="containsText" dxfId="73" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18296,7 +18296,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="72" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18313,7 +18313,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="71" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18330,7 +18330,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F41">
-    <cfRule type="containsText" dxfId="70" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18347,7 +18347,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:F59">
-    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18852,7 +18852,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F11">
-    <cfRule type="containsText" dxfId="68" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18869,7 +18869,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12:F20">
-    <cfRule type="containsText" dxfId="67" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18886,7 +18886,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F5">
-    <cfRule type="containsText" dxfId="66" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Spain/#Spain#Regular#[1934-2001]#circulation_quality.xlsx
+++ b/Collections/Spain/#Spain#Regular#[1934-2001]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF5D525-405F-4DB8-BA30-C3B135CB0FC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB7E6E7-7CD5-4AAA-9A14-CAFA4A87FF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5cêntimo" sheetId="3" r:id="rId1"/>
@@ -2744,14 +2744,15 @@
     <cellStyle name="Гиперссылка" xfId="2" builtinId="8"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="215">
+  <dxfs count="201">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -4337,119 +4338,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -4479,9 +4367,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="214"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="213" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="212"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -6478,7 +6366,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F8">
-    <cfRule type="containsText" dxfId="202" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="200" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6495,7 +6383,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F13">
-    <cfRule type="containsText" dxfId="201" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="199" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6512,7 +6400,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F21">
-    <cfRule type="containsText" dxfId="200" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="198" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6529,7 +6417,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="199" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="197" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6546,7 +6434,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="198" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="196" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6563,7 +6451,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="197" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="195" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6580,7 +6468,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="196" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="194" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6597,7 +6485,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="195" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="193" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6614,7 +6502,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F70">
-    <cfRule type="containsText" dxfId="194" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="192" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6631,7 +6519,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="193" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="191" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6648,7 +6536,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="192" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="190" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8431,7 +8319,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="containsText" dxfId="98" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="96" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8448,7 +8336,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="containsText" dxfId="97" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="95" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8465,7 +8353,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="containsText" dxfId="96" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="94" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8482,7 +8370,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F60">
-    <cfRule type="containsText" dxfId="95" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="93" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8499,7 +8387,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33:F35">
-    <cfRule type="containsText" dxfId="94" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="92" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8516,7 +8404,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36:F38">
-    <cfRule type="containsText" dxfId="93" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="91" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8533,7 +8421,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F41">
-    <cfRule type="containsText" dxfId="92" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="90" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8550,7 +8438,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43:F44">
-    <cfRule type="containsText" dxfId="91" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="89" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8567,7 +8455,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F47">
-    <cfRule type="containsText" dxfId="90" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="88" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8584,7 +8472,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48:F55">
-    <cfRule type="containsText" dxfId="89" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="87" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8601,7 +8489,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30">
-    <cfRule type="containsText" dxfId="88" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="86" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8618,7 +8506,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="87" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="85" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8635,7 +8523,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27">
-    <cfRule type="containsText" dxfId="86" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="84" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8652,7 +8540,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61:F75">
-    <cfRule type="containsText" dxfId="85" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="83" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8669,7 +8557,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="containsText" dxfId="84" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="82" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8686,12 +8574,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F26">
-    <cfRule type="containsText" dxfId="83" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="81" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="82" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="80" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8720,7 +8608,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F15">
-    <cfRule type="containsText" dxfId="81" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="79" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10508,7 +10396,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F39">
-    <cfRule type="containsText" dxfId="80" priority="53" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="78" priority="53" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10525,7 +10413,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F44">
-    <cfRule type="containsText" dxfId="79" priority="51" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="77" priority="51" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10542,7 +10430,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="78" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="76" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10559,7 +10447,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="77" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="75" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10576,7 +10464,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="76" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="74" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10593,7 +10481,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="75" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="73" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10610,7 +10498,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="74" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="72" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10627,7 +10515,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="73" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="71" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10644,7 +10532,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="72" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="70" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10661,7 +10549,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="containsText" dxfId="71" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="69" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10678,7 +10566,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="containsText" dxfId="70" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="68" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10695,7 +10583,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65 F67:F68">
-    <cfRule type="containsText" dxfId="69" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="67" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10712,7 +10600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69:F71">
-    <cfRule type="containsText" dxfId="68" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="66" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10729,7 +10617,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72:F74">
-    <cfRule type="containsText" dxfId="67" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="65" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10746,7 +10634,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:F49">
-    <cfRule type="containsText" dxfId="66" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="64" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10763,7 +10651,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:F52">
-    <cfRule type="containsText" dxfId="65" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="63" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10780,7 +10668,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53:F55">
-    <cfRule type="containsText" dxfId="64" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="62" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10797,7 +10685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="containsText" dxfId="63" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10814,7 +10702,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="62" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="60" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10831,7 +10719,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="containsText" dxfId="61" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="59" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10848,7 +10736,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="60" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="58" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10865,7 +10753,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="59" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="57" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10882,12 +10770,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F26">
-    <cfRule type="containsText" dxfId="58" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="56" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="55" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10916,7 +10804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F15">
-    <cfRule type="containsText" dxfId="56" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10933,7 +10821,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="55" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="53" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12644,7 +12532,7 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="54" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="52" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12661,12 +12549,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="containsText" dxfId="53" priority="49" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="51" priority="49" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:F44">
-    <cfRule type="containsText" dxfId="52" priority="47" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="50" priority="47" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12683,7 +12571,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:F48">
-    <cfRule type="containsText" dxfId="51" priority="45" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="49" priority="45" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12700,7 +12588,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="50" priority="43" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="48" priority="43" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12717,7 +12605,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="49" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="47" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12734,7 +12622,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="48" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="46" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12751,7 +12639,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="47" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="45" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12768,7 +12656,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="containsText" dxfId="46" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="44" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12785,7 +12673,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35:F37">
-    <cfRule type="containsText" dxfId="45" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12802,7 +12690,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="containsText" dxfId="44" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="42" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12819,7 +12707,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="43" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="41" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12836,7 +12724,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="42" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="40" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12853,7 +12741,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:F55">
-    <cfRule type="containsText" dxfId="41" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="39" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12870,7 +12758,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57:F59">
-    <cfRule type="containsText" dxfId="40" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="38" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12887,7 +12775,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61:F63">
-    <cfRule type="containsText" dxfId="39" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="37" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12904,7 +12792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64:F66">
-    <cfRule type="containsText" dxfId="38" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="36" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12921,7 +12809,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="containsText" dxfId="37" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="35" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12962,7 +12850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F34">
-    <cfRule type="containsText" dxfId="35" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="34" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12979,12 +12867,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F19">
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="33" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="32" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -13013,7 +12901,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F15">
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14752,7 +14640,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="31" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="29" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14769,7 +14657,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="30" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="28" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14786,7 +14674,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="29" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="27" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14803,7 +14691,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55:F57">
-    <cfRule type="containsText" dxfId="28" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="26" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14820,7 +14708,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59:F61 F30:F54">
-    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="25" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14837,7 +14725,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F69">
-    <cfRule type="containsText" dxfId="26" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="24" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14854,7 +14742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="25" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14871,7 +14759,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F29">
-    <cfRule type="containsText" dxfId="24" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="22" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14888,12 +14776,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F19">
-    <cfRule type="containsText" dxfId="23" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="20" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14922,7 +14810,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F15">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15006,7 +14894,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="8" t="str">
-        <f t="shared" ref="G3:G55" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G54" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -16629,12 +16517,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56:F59 F62:F70">
-    <cfRule type="containsText" dxfId="20" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="19" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16651,7 +16539,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="18" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16680,7 +16568,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F54">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="15" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16697,7 +16585,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F29">
-    <cfRule type="containsText" dxfId="15" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16714,12 +16602,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F19">
-    <cfRule type="containsText" dxfId="14" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16748,7 +16636,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F15">
-    <cfRule type="containsText" dxfId="12" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16765,7 +16653,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55">
-    <cfRule type="containsText" dxfId="11" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16849,7 +16737,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="8" t="str">
-        <f t="shared" ref="G3:G62" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G3:G61" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -18464,7 +18352,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63:F70">
-    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18481,7 +18369,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F53">
-    <cfRule type="containsText" dxfId="208" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18498,7 +18386,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F29">
-    <cfRule type="containsText" dxfId="207" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18515,17 +18403,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F19">
-    <cfRule type="containsText" dxfId="206" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="205" priority="8" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F15">
-    <cfRule type="colorScale" priority="8">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -18549,12 +18437,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F15">
-    <cfRule type="containsText" dxfId="204" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F62">
-    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20334,7 +20222,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F8">
-    <cfRule type="containsText" dxfId="191" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="189" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20351,7 +20239,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="containsText" dxfId="190" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="188" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20368,7 +20256,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="containsText" dxfId="189" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="187" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20385,7 +20273,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="188" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="186" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20402,7 +20290,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15:F21">
-    <cfRule type="containsText" dxfId="187" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="185" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20419,7 +20307,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23:F27">
-    <cfRule type="containsText" dxfId="186" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="184" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20436,7 +20324,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28">
-    <cfRule type="containsText" dxfId="185" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="183" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20453,7 +20341,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="containsText" dxfId="184" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="182" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20470,7 +20358,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="183" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="181" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20487,7 +20375,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="182" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="180" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20504,7 +20392,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="181" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="179" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20521,7 +20409,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="180" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="178" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20538,7 +20426,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:F70">
-    <cfRule type="containsText" dxfId="179" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="177" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20555,7 +20443,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="178" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="176" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20572,7 +20460,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="177" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="175" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20589,7 +20477,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="176" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="174" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22301,7 +22189,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="175" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="173" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22318,7 +22206,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="174" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="172" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22335,7 +22223,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="173" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="171" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22352,7 +22240,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="172" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="170" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22369,7 +22257,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:F70">
-    <cfRule type="containsText" dxfId="171" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="169" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24062,7 +23950,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="170" priority="41" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="168" priority="41" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24079,7 +23967,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6:F19">
-    <cfRule type="containsText" dxfId="169" priority="39" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="167" priority="39" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24096,7 +23984,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="168" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="166" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24113,7 +24001,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F31">
-    <cfRule type="containsText" dxfId="167" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="165" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24130,7 +24018,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="containsText" dxfId="166" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="164" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24147,7 +24035,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47">
-    <cfRule type="containsText" dxfId="165" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="163" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24164,7 +24052,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="containsText" dxfId="164" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="162" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24181,7 +24069,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F49">
-    <cfRule type="containsText" dxfId="163" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="161" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24198,7 +24086,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="containsText" dxfId="162" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="160" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24215,7 +24103,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="containsText" dxfId="161" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="159" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24232,7 +24120,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45">
-    <cfRule type="containsText" dxfId="160" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="158" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24249,7 +24137,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50">
-    <cfRule type="containsText" dxfId="159" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="157" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24266,7 +24154,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46">
-    <cfRule type="containsText" dxfId="158" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="156" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24283,7 +24171,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F43">
-    <cfRule type="containsText" dxfId="157" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="155" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24300,7 +24188,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:F39">
-    <cfRule type="containsText" dxfId="156" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="154" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24317,7 +24205,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F35">
-    <cfRule type="containsText" dxfId="155" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="153" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24334,7 +24222,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="containsText" dxfId="154" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="152" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24351,7 +24239,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F24">
-    <cfRule type="containsText" dxfId="153" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="151" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24368,7 +24256,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="containsText" dxfId="152" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="150" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24385,7 +24273,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="containsText" dxfId="151" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="149" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24402,7 +24290,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51:F71">
-    <cfRule type="containsText" dxfId="150" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="148" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27139,7 +27027,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H5">
-    <cfRule type="containsText" dxfId="149" priority="37" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="147" priority="37" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27156,7 +27044,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7:H12">
-    <cfRule type="containsText" dxfId="148" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="146" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27173,7 +27061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H16">
-    <cfRule type="containsText" dxfId="147" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="145" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27190,7 +27078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="containsText" dxfId="146" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="144" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27207,7 +27095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H29">
-    <cfRule type="containsText" dxfId="145" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="143" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27224,7 +27112,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="144" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="142" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27241,7 +27129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="containsText" dxfId="143" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="141" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27258,7 +27146,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="containsText" dxfId="142" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="140" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27275,7 +27163,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:H24">
-    <cfRule type="containsText" dxfId="141" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="139" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27292,7 +27180,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="containsText" dxfId="140" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="138" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27309,7 +27197,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H50 H53:H57">
-    <cfRule type="containsText" dxfId="139" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="137" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27326,7 +27214,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:H77">
-    <cfRule type="containsText" dxfId="138" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="136" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27343,7 +27231,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="containsText" dxfId="137" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="135" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27360,7 +27248,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3:I50 I52:I77">
-    <cfRule type="containsText" dxfId="136" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="134" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27377,7 +27265,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J51 J53:J77">
-    <cfRule type="containsText" dxfId="135" priority="9" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="133" priority="9" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27394,7 +27282,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="containsText" dxfId="134" priority="7" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="132" priority="7" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27411,7 +27299,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52">
-    <cfRule type="containsText" dxfId="133" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="131" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27428,7 +27316,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="containsText" dxfId="132" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="130" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27445,7 +27333,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="containsText" dxfId="131" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="129" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -28393,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="8" t="str">
-        <f t="shared" ref="G7:G50" si="1">IF(OR(AND(F39&gt;1,F39&lt;&gt;"-")),"Can exchange","")</f>
+        <f t="shared" ref="G39:G50" si="1">IF(OR(AND(F39&gt;1,F39&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
@@ -29156,7 +29044,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52">
-    <cfRule type="containsText" dxfId="130" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="128" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29173,7 +29061,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F53">
-    <cfRule type="containsText" dxfId="129" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="127" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29190,7 +29078,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F51">
-    <cfRule type="containsText" dxfId="128" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="126" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29207,7 +29095,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54:F70">
-    <cfRule type="containsText" dxfId="127" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="125" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29224,7 +29112,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F50">
-    <cfRule type="containsText" dxfId="126" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="124" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29241,7 +29129,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="125" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="123" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30944,7 +30832,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24">
-    <cfRule type="containsText" dxfId="124" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="122" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30961,7 +30849,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F25">
-    <cfRule type="containsText" dxfId="123" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="121" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30978,7 +30866,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F40">
-    <cfRule type="containsText" dxfId="122" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="120" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30995,7 +30883,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="containsText" dxfId="121" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="119" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31012,7 +30900,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F22">
-    <cfRule type="containsText" dxfId="120" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="118" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31029,7 +30917,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="119" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="117" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31046,7 +30934,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61:F70">
-    <cfRule type="containsText" dxfId="118" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="116" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31063,7 +30951,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F41:F60">
-    <cfRule type="containsText" dxfId="117" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="115" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31077,11 +30965,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A26" sqref="A3:XFD26"/>
+      <selection pane="bottomRight" activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32637,11 +32525,11 @@
         <v>268</v>
       </c>
       <c r="F68" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G68" s="8" t="str">
         <f t="shared" si="1"/>
-        <v>Can exchange</v>
+        <v/>
       </c>
       <c r="L68" t="s">
         <v>191</v>
@@ -32798,7 +32686,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F26">
-    <cfRule type="containsText" dxfId="116" priority="35" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="114" priority="35" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32815,7 +32703,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="containsText" dxfId="115" priority="33" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="113" priority="33" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32832,7 +32720,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="114" priority="31" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="112" priority="31" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32849,7 +32737,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="113" priority="29" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="111" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32866,7 +32754,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58:F60">
-    <cfRule type="containsText" dxfId="112" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="110" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32883,7 +32771,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="111" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="109" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32900,7 +32788,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="110" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="108" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32917,7 +32805,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F56">
-    <cfRule type="containsText" dxfId="109" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="107" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32934,12 +32822,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61:F74">
-    <cfRule type="containsText" dxfId="108" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="106" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="107" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="105" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32968,7 +32856,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F17">
-    <cfRule type="containsText" dxfId="106" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="104" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -32982,7 +32870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
@@ -34673,7 +34561,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F55:F60">
-    <cfRule type="containsText" dxfId="105" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="103" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34690,7 +34578,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61:F69">
-    <cfRule type="containsText" dxfId="104" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="102" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34707,7 +34595,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F52:F54">
-    <cfRule type="containsText" dxfId="103" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="101" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34736,7 +34624,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="102" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="100" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34753,7 +34641,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F19">
-    <cfRule type="containsText" dxfId="101" priority="5" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="99" priority="5" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -34770,12 +34658,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F4">
-    <cfRule type="containsText" dxfId="100" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="98" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F51">
-    <cfRule type="containsText" dxfId="99" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="97" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(#REF!))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/Spain/#Spain#Regular#[1934-2001]#circulation_quality.xlsx
+++ b/Collections/Spain/#Spain#Regular#[1934-2001]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB7E6E7-7CD5-4AAA-9A14-CAFA4A87FF02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B29F1D-EF48-462C-85B1-E13893977C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5cêntimo" sheetId="3" r:id="rId1"/>
@@ -6550,11 +6550,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D47" sqref="D47"/>
+      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8224,7 +8224,7 @@
         <v>306</v>
       </c>
       <c r="F72" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G72" s="8" t="str">
         <f t="shared" si="2"/>
@@ -8623,7 +8623,7 @@
   <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
@@ -10836,10 +10836,10 @@
   <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A40" sqref="A40:XFD40"/>
+      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12326,7 +12326,7 @@
         <v>338</v>
       </c>
       <c r="F63" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="8" t="str">
         <f t="shared" si="2"/>
@@ -24305,10 +24305,10 @@
   <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C45" sqref="C45"/>
+      <selection pane="bottomRight" activeCell="A71" sqref="A71:G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30965,11 +30965,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K67" sqref="K67"/>
+      <selection pane="bottomRight" activeCell="A67" sqref="A67:XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32871,7 +32871,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D43" sqref="D43"/>

--- a/Collections/Spain/#Spain#Regular#[1934-2001]#circulation_quality.xlsx
+++ b/Collections/Spain/#Spain#Regular#[1934-2001]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B29F1D-EF48-462C-85B1-E13893977C4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055CC9C3-57F0-4343-A67E-93336EBAFDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5cêntimo" sheetId="3" r:id="rId1"/>
@@ -66,7 +66,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{B9203A4C-D0BB-43C1-A4C1-36BD2BE63056}">
       <text>
         <r>
           <rPr>
@@ -82,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{BBF8488B-0379-44EB-ABAE-90B46CE38D86}">
       <text>
         <r>
           <rPr>
@@ -123,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{1C7521C0-CECC-4F54-BAD0-3DD81FD52E21}">
       <text>
         <r>
           <rPr>
@@ -139,7 +139,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0900-000003000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{1BC6D22C-12FC-464D-A0BA-F634D4BE23CC}">
       <text>
         <r>
           <rPr>
@@ -180,7 +180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{099FF01E-0B26-4E1B-9A79-9F836703114D}">
       <text>
         <r>
           <rPr>
@@ -196,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{6C531EC0-0940-4B77-8525-FF3480F47604}">
       <text>
         <r>
           <rPr>
@@ -237,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{FC79249B-AF8A-4667-A8EE-F8556F69C692}">
       <text>
         <r>
           <rPr>
@@ -253,7 +253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0B00-000003000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{5A0EBC42-123E-46CA-99D4-E503A57E4722}">
       <text>
         <r>
           <rPr>
@@ -294,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{E9D74677-42EC-4978-A9EF-71E0EB120B8A}">
       <text>
         <r>
           <rPr>
@@ -310,7 +310,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000003000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{CC0EDC09-E8C5-428A-AFDD-55B021D13BE4}">
       <text>
         <r>
           <rPr>
@@ -351,7 +351,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{92327BB1-2519-4F66-86A8-7ED47E9D2757}">
       <text>
         <r>
           <rPr>
@@ -367,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0D00-000003000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{789D0D8C-39C3-49FF-8347-86882DFC0CB9}">
       <text>
         <r>
           <rPr>
@@ -408,7 +408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{6FCABCD2-2FC7-4007-89B1-1971F98A8ED6}">
       <text>
         <r>
           <rPr>
@@ -424,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0E00-000003000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{3FDC59EA-3B64-4AB9-BBAD-6403D23C4745}">
       <text>
         <r>
           <rPr>
@@ -465,7 +465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{1A9382F9-2477-4ADC-B339-CBED2B367406}">
       <text>
         <r>
           <rPr>
@@ -481,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{86C47FDB-5911-41AB-A7A1-C1B318B9A58D}">
       <text>
         <r>
           <rPr>
@@ -522,7 +522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{8A90CB92-BA1B-45A5-A76E-E727D7CD1C08}">
       <text>
         <r>
           <rPr>
@@ -538,7 +538,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{CE70AD07-BA73-4094-8636-7FECE5C11FC3}">
       <text>
         <r>
           <rPr>
@@ -579,7 +579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{A0501196-A46A-4EAF-916A-826625ACBE28}">
       <text>
         <r>
           <rPr>
@@ -595,7 +595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{90E4BB96-505C-44A1-9552-E2005712538A}">
       <text>
         <r>
           <rPr>
@@ -636,7 +636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{43B4EB2E-0F7D-4AE6-8130-96733A177526}">
       <text>
         <r>
           <rPr>
@@ -684,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{6C41D13A-3D2D-40AD-929F-88E95D059297}">
       <text>
         <r>
           <rPr>
@@ -757,7 +757,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{5575E73E-02D7-478B-87F3-C01E03922088}">
       <text>
         <r>
           <rPr>
@@ -773,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{D3E06E61-9CE1-4B59-9FBA-3B5CEA12B2CC}">
       <text>
         <r>
           <rPr>
@@ -814,7 +814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{9612B6A2-6B64-4375-98DE-6AA5C316ADDA}">
       <text>
         <r>
           <rPr>
@@ -830,7 +830,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{FB5E8177-DEE3-4365-85A2-343167459D71}">
       <text>
         <r>
           <rPr>
@@ -871,7 +871,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{051C3679-DFCE-46BA-9B72-9780E77B97F7}">
       <text>
         <r>
           <rPr>
@@ -887,7 +887,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000003000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{71D75D11-BE28-46D8-9968-33682258B3F5}">
       <text>
         <r>
           <rPr>
@@ -928,7 +928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{60A5CE16-4FF4-471E-8B61-E957BEF58879}">
       <text>
         <r>
           <rPr>
@@ -944,7 +944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{64399A90-F98D-403A-99FA-9325AB10EED7}">
       <text>
         <r>
           <rPr>
@@ -2185,9 +2185,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Mintage</t>
   </si>
   <si>
@@ -2342,6 +2339,9 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>ES</t>
   </si>
 </sst>
 </file>
@@ -4674,11 +4674,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A3:XFD50"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4696,33 +4696,33 @@
         <v>405</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>410</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -4805,7 +4805,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="5" t="s">
@@ -4875,7 +4875,7 @@
         <v>178</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="5" t="s">
@@ -4897,7 +4897,7 @@
         <v>178</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="5" t="s">
@@ -4991,7 +4991,7 @@
         <v>178</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="5" t="s">
@@ -5181,7 +5181,7 @@
         <v>178</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="5" t="s">
@@ -6550,11 +6550,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H63" sqref="H63"/>
+      <selection pane="bottomRight" activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6571,33 +6571,33 @@
         <v>405</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>410</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -7184,7 +7184,7 @@
         <v>179</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="5" t="s">
@@ -7206,7 +7206,7 @@
         <v>179</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="6" t="s">
@@ -7252,7 +7252,7 @@
         <v>179</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="6" t="s">
@@ -7322,7 +7322,7 @@
         <v>179</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="5" t="s">
@@ -7344,7 +7344,7 @@
         <v>179</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="6" t="s">
@@ -7366,7 +7366,7 @@
         <v>179</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="5" t="s">
@@ -7388,7 +7388,7 @@
         <v>179</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="6" t="s">
@@ -7410,7 +7410,7 @@
         <v>179</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="5" t="s">
@@ -7432,7 +7432,7 @@
         <v>179</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="6" t="s">
@@ -7454,7 +7454,7 @@
         <v>179</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="5" t="s">
@@ -7476,7 +7476,7 @@
         <v>179</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="6" t="s">
@@ -7498,7 +7498,7 @@
         <v>179</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="5" t="s">
@@ -7520,7 +7520,7 @@
         <v>179</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="6" t="s">
@@ -7542,7 +7542,7 @@
         <v>179</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="5" t="s">
@@ -7564,7 +7564,7 @@
         <v>179</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="6" t="s">
@@ -7586,7 +7586,7 @@
         <v>234</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="6" t="s">
@@ -7608,7 +7608,7 @@
         <v>234</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="6" t="s">
@@ -7630,7 +7630,7 @@
         <v>234</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="6" t="s">
@@ -7652,7 +7652,7 @@
         <v>234</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="6" t="s">
@@ -7674,7 +7674,7 @@
         <v>234</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="6" t="s">
@@ -7696,7 +7696,7 @@
         <v>189</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="6" t="s">
@@ -7718,7 +7718,7 @@
         <v>189</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="6" t="s">
@@ -7740,7 +7740,7 @@
         <v>189</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="6" t="s">
@@ -7762,10 +7762,10 @@
         <v>234</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>235</v>
@@ -7786,10 +7786,10 @@
         <v>234</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>236</v>
@@ -7813,10 +7813,10 @@
         <v>234</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>237</v>
@@ -7966,13 +7966,13 @@
         <v>1990</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E61" s="36" t="s">
         <v>293</v>
@@ -7990,13 +7990,13 @@
         <v>1990</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E62" s="37"/>
       <c r="F62" s="15">
@@ -8012,13 +8012,13 @@
         <v>1991</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E63" s="38" t="s">
         <v>294</v>
@@ -8036,13 +8036,13 @@
         <v>1991</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E64" s="37"/>
       <c r="F64" s="15">
@@ -8058,13 +8058,13 @@
         <v>1992</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E65" s="38" t="s">
         <v>295</v>
@@ -8082,13 +8082,13 @@
         <v>1992</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E66" s="37"/>
       <c r="F66" s="15">
@@ -8107,7 +8107,7 @@
         <v>297</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="6" t="s">
@@ -8129,7 +8129,7 @@
         <v>299</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="6" t="s">
@@ -8151,7 +8151,7 @@
         <v>301</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="6" t="s">
@@ -8173,7 +8173,7 @@
         <v>303</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="6" t="s">
@@ -8195,7 +8195,7 @@
         <v>305</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="6" t="s">
@@ -8217,7 +8217,7 @@
         <v>307</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="6" t="s">
@@ -8239,7 +8239,7 @@
         <v>309</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="6" t="s">
@@ -8261,7 +8261,7 @@
         <v>312</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="6" t="s">
@@ -8283,7 +8283,7 @@
         <v>312</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="6" t="s">
@@ -8626,7 +8626,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8643,33 +8643,33 @@
         <v>405</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>410</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -9256,7 +9256,7 @@
         <v>179</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="5" t="s">
@@ -9462,7 +9462,7 @@
         <v>179</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="6" t="s">
@@ -9484,7 +9484,7 @@
         <v>179</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="6" t="s">
@@ -9506,7 +9506,7 @@
         <v>179</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="6" t="s">
@@ -9528,7 +9528,7 @@
         <v>179</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="6" t="s">
@@ -9550,7 +9550,7 @@
         <v>179</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="6" t="s">
@@ -9572,7 +9572,7 @@
         <v>179</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="6" t="s">
@@ -9594,7 +9594,7 @@
         <v>179</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="6" t="s">
@@ -9616,7 +9616,7 @@
         <v>179</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="6" t="s">
@@ -9638,7 +9638,7 @@
         <v>179</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="6" t="s">
@@ -9660,7 +9660,7 @@
         <v>214</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="6" t="s">
@@ -9706,7 +9706,7 @@
         <v>214</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="6" t="s">
@@ -9728,7 +9728,7 @@
         <v>214</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="6" t="s">
@@ -9750,7 +9750,7 @@
         <v>214</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="6" t="s">
@@ -9772,7 +9772,7 @@
         <v>241</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="6" t="s">
@@ -9794,7 +9794,7 @@
         <v>241</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="6" t="s">
@@ -9816,7 +9816,7 @@
         <v>241</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="6" t="s">
@@ -9841,10 +9841,10 @@
         <v>214</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>242</v>
@@ -9868,10 +9868,10 @@
         <v>214</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>243</v>
@@ -9895,10 +9895,10 @@
         <v>214</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>24</v>
@@ -10066,13 +10066,13 @@
         <v>1990</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>313</v>
@@ -10090,13 +10090,13 @@
         <v>1990</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>314</v>
@@ -10138,13 +10138,13 @@
         <v>1992</v>
       </c>
       <c r="B65" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="D65" s="13" t="s">
         <v>430</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>431</v>
       </c>
       <c r="E65" s="36" t="s">
         <v>315</v>
@@ -10162,13 +10162,13 @@
         <v>1992</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E66" s="37"/>
       <c r="F66" s="15">
@@ -10184,7 +10184,7 @@
         <v>317</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="6" t="s">
@@ -10206,7 +10206,7 @@
         <v>319</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="6" t="s">
@@ -10228,7 +10228,7 @@
         <v>321</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="6" t="s">
@@ -10250,7 +10250,7 @@
         <v>323</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="6" t="s">
@@ -10272,7 +10272,7 @@
         <v>325</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="6" t="s">
@@ -10294,7 +10294,7 @@
         <v>244</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="6" t="s">
@@ -10316,7 +10316,7 @@
         <v>244</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="6" t="s">
@@ -10338,7 +10338,7 @@
         <v>244</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="6" t="s">
@@ -10839,7 +10839,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10856,33 +10856,33 @@
         <v>405</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>410</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -11661,7 +11661,7 @@
         <v>185</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="10" t="s">
@@ -11683,7 +11683,7 @@
         <v>185</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="11" t="s">
@@ -11705,7 +11705,7 @@
         <v>185</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="10" t="s">
@@ -11751,7 +11751,7 @@
         <v>185</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="10" t="s">
@@ -11893,7 +11893,7 @@
         <v>201</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="11" t="s">
@@ -11987,7 +11987,7 @@
         <v>189</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="11" t="s">
@@ -12033,10 +12033,10 @@
         <v>173</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>327</v>
@@ -12057,10 +12057,10 @@
         <v>173</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>328</v>
@@ -12081,10 +12081,10 @@
         <v>173</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>329</v>
@@ -12105,10 +12105,10 @@
         <v>173</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>330</v>
@@ -12129,10 +12129,10 @@
         <v>173</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>331</v>
@@ -12177,10 +12177,10 @@
         <v>173</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>332</v>
@@ -12201,10 +12201,10 @@
         <v>173</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>333</v>
@@ -12225,10 +12225,10 @@
         <v>173</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>334</v>
@@ -12270,13 +12270,13 @@
         <v>1992</v>
       </c>
       <c r="B61" s="18" t="s">
+        <v>446</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="D61" s="13" t="s">
         <v>447</v>
-      </c>
-      <c r="C61" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>448</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>335</v>
@@ -12297,7 +12297,7 @@
         <v>337</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="11" t="s">
@@ -12319,7 +12319,7 @@
         <v>339</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="11" t="s">
@@ -12341,7 +12341,7 @@
         <v>341</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="11" t="s">
@@ -12363,7 +12363,7 @@
         <v>343</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="11" t="s">
@@ -12385,7 +12385,7 @@
         <v>345</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="11" t="s">
@@ -12404,13 +12404,13 @@
         <v>1998</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E67" s="9" t="s">
         <v>44</v>
@@ -12428,13 +12428,13 @@
         <v>1999</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>346</v>
@@ -12455,7 +12455,7 @@
         <v>347</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="9" t="s">
@@ -12501,7 +12501,7 @@
         <v>349</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="11" t="s">
@@ -12939,7 +12939,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -12956,33 +12956,33 @@
         <v>405</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>410</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -14241,7 +14241,7 @@
         <v>353</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="10" t="s">
@@ -14263,7 +14263,7 @@
         <v>353</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="10" t="s">
@@ -14285,7 +14285,7 @@
         <v>353</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="10" t="s">
@@ -14331,7 +14331,7 @@
         <v>355</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="10" t="s">
@@ -14353,7 +14353,7 @@
         <v>357</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="10" t="s">
@@ -14375,7 +14375,7 @@
         <v>359</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="10" t="s">
@@ -14397,7 +14397,7 @@
         <v>360</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="9" t="s">
@@ -14419,7 +14419,7 @@
         <v>362</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="10" t="s">
@@ -14441,7 +14441,7 @@
         <v>364</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="10" t="s">
@@ -14463,7 +14463,7 @@
         <v>366</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="10" t="s">
@@ -14485,7 +14485,7 @@
         <v>368</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="10" t="s">
@@ -14507,7 +14507,7 @@
         <v>370</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="10" t="s">
@@ -14529,7 +14529,7 @@
         <v>373</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="10" t="s">
@@ -14551,7 +14551,7 @@
         <v>373</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="10" t="s">
@@ -14573,7 +14573,7 @@
         <v>373</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="9" t="s">
@@ -14828,7 +14828,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H58" sqref="H58"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14845,33 +14845,33 @@
         <v>405</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>410</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -16154,7 +16154,7 @@
         <v>378</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="10" t="s">
@@ -16176,7 +16176,7 @@
         <v>378</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="10" t="s">
@@ -16198,7 +16198,7 @@
         <v>378</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="10" t="s">
@@ -16220,7 +16220,7 @@
         <v>378</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="10" t="s">
@@ -16290,10 +16290,10 @@
         <v>378</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>379</v>
@@ -16314,10 +16314,10 @@
         <v>378</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>380</v>
@@ -16338,10 +16338,10 @@
         <v>378</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>381</v>
@@ -16362,10 +16362,10 @@
         <v>378</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>382</v>
@@ -16386,10 +16386,10 @@
         <v>378</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>383</v>
@@ -16410,10 +16410,10 @@
         <v>378</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>384</v>
@@ -16434,10 +16434,10 @@
         <v>378</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>385</v>
@@ -16458,10 +16458,10 @@
         <v>378</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>386</v>
@@ -16482,10 +16482,10 @@
         <v>378</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>387</v>
@@ -16671,7 +16671,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E41" sqref="E41"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -16688,33 +16688,33 @@
         <v>405</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" s="21" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>410</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18165,7 +18165,7 @@
         <v>389</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="10" t="s">
@@ -18187,7 +18187,7 @@
         <v>391</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="10" t="s">
@@ -18209,7 +18209,7 @@
         <v>393</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="10" t="s">
@@ -18231,7 +18231,7 @@
         <v>395</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="10" t="s">
@@ -18253,7 +18253,7 @@
         <v>397</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="10" t="s">
@@ -18275,7 +18275,7 @@
         <v>399</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="10" t="s">
@@ -18297,7 +18297,7 @@
         <v>401</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="10" t="s">
@@ -18319,7 +18319,7 @@
         <v>403</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="10" t="s">
@@ -18487,10 +18487,10 @@
         <v>1</v>
       </c>
       <c r="B1" s="24" t="s">
+        <v>454</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>455</v>
-      </c>
-      <c r="C1" s="25" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
@@ -18501,7 +18501,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -18512,7 +18512,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
@@ -18536,7 +18536,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8:G70"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18554,33 +18554,33 @@
         <v>405</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>410</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -18687,7 +18687,7 @@
         <v>173</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="11" t="s">
@@ -18733,7 +18733,7 @@
         <v>178</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="9" t="s">
@@ -18755,7 +18755,7 @@
         <v>178</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D10" s="13"/>
       <c r="E10" s="9" t="s">
@@ -18849,7 +18849,7 @@
         <v>178</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="9" t="s">
@@ -19039,7 +19039,7 @@
         <v>178</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="9" t="s">
@@ -19181,7 +19181,7 @@
         <v>179</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="9" t="s">
@@ -20495,7 +20495,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A50" sqref="A50:XFD70"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -20513,33 +20513,33 @@
         <v>405</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>410</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -20550,7 +20550,7 @@
         <v>171</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="5" t="s">
@@ -20620,7 +20620,7 @@
         <v>180</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="5" t="s">
@@ -22275,7 +22275,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22292,33 +22292,33 @@
         <v>405</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>410</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -22329,7 +22329,7 @@
         <v>175</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10" t="s">
@@ -22375,7 +22375,7 @@
         <v>175</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10" t="s">
@@ -22733,7 +22733,7 @@
         <v>181</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="9" t="s">
@@ -22755,7 +22755,7 @@
         <v>182</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="9" t="s">
@@ -22777,7 +22777,7 @@
         <v>182</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="9" t="s">
@@ -22799,7 +22799,7 @@
         <v>182</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="9" t="s">
@@ -22821,7 +22821,7 @@
         <v>182</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="9" t="s">
@@ -22867,7 +22867,7 @@
         <v>182</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="9" t="s">
@@ -23009,7 +23009,7 @@
         <v>182</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="9" t="s">
@@ -23031,7 +23031,7 @@
         <v>182</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="9" t="s">
@@ -23053,7 +23053,7 @@
         <v>182</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="9" t="s">
@@ -23075,7 +23075,7 @@
         <v>182</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="9" t="s">
@@ -23121,7 +23121,7 @@
         <v>183</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="9" t="s">
@@ -23143,7 +23143,7 @@
         <v>183</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="9" t="s">
@@ -23165,7 +23165,7 @@
         <v>183</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="9" t="s">
@@ -23187,7 +23187,7 @@
         <v>183</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="9" t="s">
@@ -23209,7 +23209,7 @@
         <v>183</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="9" t="s">
@@ -23231,7 +23231,7 @@
         <v>183</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="9" t="s">
@@ -23253,7 +23253,7 @@
         <v>183</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="9" t="s">
@@ -23275,7 +23275,7 @@
         <v>183</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="9" t="s">
@@ -23297,7 +23297,7 @@
         <v>183</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="9" t="s">
@@ -23319,7 +23319,7 @@
         <v>183</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="6" t="s">
@@ -23413,7 +23413,7 @@
         <v>189</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="6" t="s">
@@ -24308,7 +24308,7 @@
       <pane xSplit="11" ySplit="2" topLeftCell="L30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A71" sqref="A71:G71"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24325,19 +24325,19 @@
         <v>405</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="30" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" s="31"/>
       <c r="G1" s="32"/>
       <c r="H1" s="33" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I1" s="34"/>
       <c r="J1" s="34"/>
@@ -24346,28 +24346,28 @@
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>410</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G2" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>458</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="H2" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>421</v>
-      </c>
       <c r="J2" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -24378,7 +24378,7 @@
         <v>175</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="10" t="s">
@@ -24484,7 +24484,7 @@
         <v>172</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10" t="s">
@@ -24734,7 +24734,7 @@
         <v>184</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D13" s="13"/>
       <c r="E13" s="9" t="s">
@@ -24876,7 +24876,7 @@
         <v>179</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="9" t="s">
@@ -24910,7 +24910,7 @@
         <v>179</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="9" t="s">
@@ -24944,7 +24944,7 @@
         <v>179</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="9" t="s">
@@ -24978,7 +24978,7 @@
         <v>179</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="9" t="s">
@@ -25012,7 +25012,7 @@
         <v>179</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="9" t="s">
@@ -25046,7 +25046,7 @@
         <v>179</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D22" s="13"/>
       <c r="E22" s="9" t="s">
@@ -25080,7 +25080,7 @@
         <v>179</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="9" t="s">
@@ -25114,7 +25114,7 @@
         <v>179</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="9" t="s">
@@ -25184,7 +25184,7 @@
         <v>179</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="9" t="s">
@@ -25326,7 +25326,7 @@
         <v>179</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="9" t="s">
@@ -25360,7 +25360,7 @@
         <v>179</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="9" t="s">
@@ -25394,7 +25394,7 @@
         <v>179</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="9" t="s">
@@ -25428,7 +25428,7 @@
         <v>179</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="9" t="s">
@@ -25462,7 +25462,7 @@
         <v>179</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="9" t="s">
@@ -25496,7 +25496,7 @@
         <v>179</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="9" t="s">
@@ -25530,7 +25530,7 @@
         <v>179</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="9" t="s">
@@ -25564,7 +25564,7 @@
         <v>179</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="9" t="s">
@@ -25598,7 +25598,7 @@
         <v>179</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="9" t="s">
@@ -25632,7 +25632,7 @@
         <v>185</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="9" t="s">
@@ -25666,7 +25666,7 @@
         <v>185</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="9" t="s">
@@ -25700,7 +25700,7 @@
         <v>185</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="9" t="s">
@@ -25734,7 +25734,7 @@
         <v>185</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="9" t="s">
@@ -25768,7 +25768,7 @@
         <v>185</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="9" t="s">
@@ -25802,7 +25802,7 @@
         <v>185</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="9" t="s">
@@ -25836,7 +25836,7 @@
         <v>185</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="9" t="s">
@@ -25870,7 +25870,7 @@
         <v>185</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="9" t="s">
@@ -25904,7 +25904,7 @@
         <v>185</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="9" t="s">
@@ -25938,7 +25938,7 @@
         <v>201</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="9" t="s">
@@ -25972,7 +25972,7 @@
         <v>201</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="9" t="s">
@@ -26006,7 +26006,7 @@
         <v>201</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="9" t="s">
@@ -26040,7 +26040,7 @@
         <v>201</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="16" t="s">
@@ -26074,7 +26074,7 @@
         <v>201</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="16" t="s">
@@ -26111,7 +26111,7 @@
         <v>201</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="9" t="s">
@@ -26148,7 +26148,7 @@
         <v>201</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="9" t="s">
@@ -26185,7 +26185,7 @@
         <v>189</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="9" t="s">
@@ -26222,7 +26222,7 @@
         <v>189</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="9" t="s">
@@ -26259,7 +26259,7 @@
         <v>189</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="35" t="s">
@@ -26296,7 +26296,7 @@
         <v>404</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="27"/>
@@ -26328,7 +26328,7 @@
         <v>214</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="9" t="s">
@@ -26362,7 +26362,7 @@
         <v>214</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D60" s="13"/>
       <c r="E60" s="9" t="s">
@@ -26396,7 +26396,7 @@
         <v>214</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="9" t="s">
@@ -26430,7 +26430,7 @@
         <v>214</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="9" t="s">
@@ -26467,7 +26467,7 @@
         <v>214</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="9" t="s">
@@ -26504,7 +26504,7 @@
         <v>214</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="9" t="s">
@@ -26541,7 +26541,7 @@
         <v>214</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="9" t="s">
@@ -26578,7 +26578,7 @@
         <v>244</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="9" t="s">
@@ -26615,7 +26615,7 @@
         <v>244</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="9" t="s">
@@ -26652,7 +26652,7 @@
         <v>244</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="9" t="s">
@@ -26689,7 +26689,7 @@
         <v>244</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="9" t="s">
@@ -26726,7 +26726,7 @@
         <v>244</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="9" t="s">
@@ -26763,7 +26763,7 @@
         <v>244</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="9" t="s">
@@ -26800,7 +26800,7 @@
         <v>244</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="9" t="s">
@@ -26837,7 +26837,7 @@
         <v>244</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="9" t="s">
@@ -26874,7 +26874,7 @@
         <v>244</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="9" t="s">
@@ -26911,7 +26911,7 @@
         <v>244</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D75" s="13"/>
       <c r="E75" s="9" t="s">
@@ -26945,7 +26945,7 @@
         <v>244</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D76" s="13"/>
       <c r="E76" s="9" t="s">
@@ -26979,7 +26979,7 @@
         <v>244</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D77" s="13"/>
       <c r="E77" s="9" t="s">
@@ -27351,7 +27351,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A41" sqref="A41:XFD70"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -27368,33 +27368,33 @@
         <v>405</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>410</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -28557,7 +28557,7 @@
         <v>217</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="10" t="s">
@@ -28603,7 +28603,7 @@
         <v>217</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="9" t="s">
@@ -29147,7 +29147,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A51" sqref="A3:XFD51"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -29164,33 +29164,33 @@
         <v>405</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>410</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -29681,7 +29681,7 @@
         <v>179</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D23" s="13"/>
       <c r="E23" s="10" t="s">
@@ -29727,7 +29727,7 @@
         <v>179</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="9" t="s">
@@ -30013,7 +30013,7 @@
         <v>179</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="9" t="s">
@@ -30035,7 +30035,7 @@
         <v>179</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="9" t="s">
@@ -30057,7 +30057,7 @@
         <v>179</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="9" t="s">
@@ -30079,7 +30079,7 @@
         <v>179</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="9" t="s">
@@ -30969,7 +30969,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A67" sqref="A67:XFD67"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30986,33 +30986,33 @@
         <v>405</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>410</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -31383,7 +31383,7 @@
         <v>186</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D18" s="13"/>
       <c r="E18" s="10" t="s">
@@ -31405,7 +31405,7 @@
         <v>186</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D19" s="13"/>
       <c r="E19" s="11" t="s">
@@ -31427,7 +31427,7 @@
         <v>186</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="10" t="s">
@@ -31449,7 +31449,7 @@
         <v>186</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D21" s="13"/>
       <c r="E21" s="10" t="s">
@@ -31591,7 +31591,7 @@
         <v>179</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D27" s="13"/>
       <c r="E27" s="11" t="s">
@@ -31613,7 +31613,7 @@
         <v>179</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="10" t="s">
@@ -31635,7 +31635,7 @@
         <v>179</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="11" t="s">
@@ -31657,7 +31657,7 @@
         <v>179</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D30" s="13"/>
       <c r="E30" s="10" t="s">
@@ -31679,7 +31679,7 @@
         <v>179</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="11" t="s">
@@ -31701,7 +31701,7 @@
         <v>179</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D32" s="13"/>
       <c r="E32" s="10" t="s">
@@ -31723,7 +31723,7 @@
         <v>179</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="11" t="s">
@@ -31745,7 +31745,7 @@
         <v>179</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="10" t="s">
@@ -31767,7 +31767,7 @@
         <v>179</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D35" s="13"/>
       <c r="E35" s="11" t="s">
@@ -31789,7 +31789,7 @@
         <v>179</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="10" t="s">
@@ -31811,7 +31811,7 @@
         <v>179</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D37" s="13"/>
       <c r="E37" s="11" t="s">
@@ -31833,7 +31833,7 @@
         <v>179</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D38" s="13"/>
       <c r="E38" s="10" t="s">
@@ -31855,7 +31855,7 @@
         <v>179</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D39" s="13"/>
       <c r="E39" s="11" t="s">
@@ -31877,7 +31877,7 @@
         <v>179</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D40" s="13"/>
       <c r="E40" s="10" t="s">
@@ -31899,7 +31899,7 @@
         <v>179</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D41" s="13"/>
       <c r="E41" s="11" t="s">
@@ -31921,7 +31921,7 @@
         <v>179</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="10" t="s">
@@ -31943,7 +31943,7 @@
         <v>179</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D43" s="13"/>
       <c r="E43" s="11" t="s">
@@ -31965,7 +31965,7 @@
         <v>179</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D44" s="13"/>
       <c r="E44" s="10" t="s">
@@ -31987,7 +31987,7 @@
         <v>214</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="11" t="s">
@@ -32009,7 +32009,7 @@
         <v>214</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D46" s="13"/>
       <c r="E46" s="11" t="s">
@@ -32031,7 +32031,7 @@
         <v>214</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="11" t="s">
@@ -32053,7 +32053,7 @@
         <v>214</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D48" s="13"/>
       <c r="E48" s="11" t="s">
@@ -32075,7 +32075,7 @@
         <v>214</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="11" t="s">
@@ -32097,7 +32097,7 @@
         <v>225</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="11" t="s">
@@ -32119,7 +32119,7 @@
         <v>225</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D51" s="13"/>
       <c r="E51" s="11" t="s">
@@ -32141,7 +32141,7 @@
         <v>225</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D52" s="13"/>
       <c r="E52" s="11" t="s">
@@ -32163,7 +32163,7 @@
         <v>225</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D53" s="13"/>
       <c r="E53" s="11" t="s">
@@ -32185,7 +32185,7 @@
         <v>229</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D54" s="13"/>
       <c r="E54" s="11" t="s">
@@ -32207,7 +32207,7 @@
         <v>229</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="11" t="s">
@@ -32229,7 +32229,7 @@
         <v>229</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="11" t="s">
@@ -32347,10 +32347,10 @@
         <v>214</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E61" s="14" t="s">
         <v>228</v>
@@ -32371,7 +32371,7 @@
         <v>263</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="14" t="s">
@@ -32393,7 +32393,7 @@
         <v>263</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="14" t="s">
@@ -32418,7 +32418,7 @@
         <v>263</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="14" t="s">
@@ -32443,7 +32443,7 @@
         <v>263</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="14" t="s">
@@ -32468,7 +32468,7 @@
         <v>265</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="14" t="s">
@@ -32493,7 +32493,7 @@
         <v>267</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D67" s="13"/>
       <c r="E67" s="14" t="s">
@@ -32518,7 +32518,7 @@
         <v>269</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D68" s="13"/>
       <c r="E68" s="14" t="s">
@@ -32543,7 +32543,7 @@
         <v>271</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D69" s="13"/>
       <c r="E69" s="14" t="s">
@@ -32565,7 +32565,7 @@
         <v>273</v>
       </c>
       <c r="C70" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D70" s="13"/>
       <c r="E70" s="14" t="s">
@@ -32587,7 +32587,7 @@
         <v>263</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="14" t="s">
@@ -32609,7 +32609,7 @@
         <v>275</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D72" s="13"/>
       <c r="E72" s="14" t="s">
@@ -32631,7 +32631,7 @@
         <v>263</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="14" t="s">
@@ -32653,7 +32653,7 @@
         <v>263</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D74" s="13"/>
       <c r="E74" s="14" t="s">
@@ -32874,7 +32874,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="D43" sqref="D43"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32891,33 +32891,33 @@
         <v>405</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D1" s="29"/>
       <c r="E1" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="27"/>
       <c r="B2" s="27"/>
       <c r="C2" s="17" t="s">
+        <v>408</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>409</v>
       </c>
-      <c r="D2" s="17" t="s">
-        <v>410</v>
-      </c>
       <c r="E2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -34101,13 +34101,13 @@
         <v>1983</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>276</v>
@@ -34125,13 +34125,13 @@
         <v>1984</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E53" s="11" t="s">
         <v>277</v>
@@ -34149,13 +34149,13 @@
         <v>1985</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>278</v>
@@ -34317,13 +34317,13 @@
         <v>1992</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>279</v>
@@ -34344,7 +34344,7 @@
         <v>281</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D62" s="13"/>
       <c r="E62" s="10" t="s">
@@ -34366,7 +34366,7 @@
         <v>283</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="11" t="s">
@@ -34388,7 +34388,7 @@
         <v>285</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D64" s="13"/>
       <c r="E64" s="10" t="s">
@@ -34410,7 +34410,7 @@
         <v>287</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D65" s="13"/>
       <c r="E65" s="11" t="s">
@@ -34432,7 +34432,7 @@
         <v>289</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D66" s="13"/>
       <c r="E66" s="10" t="s">
@@ -34451,13 +34451,13 @@
         <v>1998</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>290</v>
@@ -34475,13 +34475,13 @@
         <v>1999</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>291</v>
@@ -34499,13 +34499,13 @@
         <v>2000</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>292</v>

--- a/Collections/Spain/#Spain#Regular#[1934-2001]#circulation_quality.xlsx
+++ b/Collections/Spain/#Spain#Regular#[1934-2001]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{055CC9C3-57F0-4343-A67E-93336EBAFDE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50C8023-FFF1-4318-AF76-4727B0B2362C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5cêntimo" sheetId="3" r:id="rId1"/>
@@ -4674,8 +4674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
@@ -6554,7 +6554,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E80" sqref="E80"/>
+      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8202,7 +8202,7 @@
         <v>304</v>
       </c>
       <c r="F71" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="8" t="str">
         <f t="shared" si="2"/>
@@ -24305,10 +24305,10 @@
   <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H2" sqref="H2"/>
+      <selection pane="bottomRight" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26480,7 +26480,7 @@
         <v>0</v>
       </c>
       <c r="H63" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63" s="15" t="s">
         <v>0</v>
@@ -26517,7 +26517,7 @@
         <v>0</v>
       </c>
       <c r="H64" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I64" s="15" t="s">
         <v>0</v>
@@ -26554,7 +26554,7 @@
         <v>0</v>
       </c>
       <c r="H65" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65" s="15" t="s">
         <v>0</v>
@@ -30965,11 +30965,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H36" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -32400,7 +32400,7 @@
         <v>257</v>
       </c>
       <c r="F63" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G63" s="8" t="str">
         <f t="shared" si="1"/>
@@ -32550,7 +32550,7 @@
         <v>270</v>
       </c>
       <c r="F69" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G69" s="8" t="str">
         <f t="shared" si="1"/>
@@ -32572,7 +32572,7 @@
         <v>272</v>
       </c>
       <c r="F70" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G70" s="8" t="str">
         <f t="shared" si="1"/>
@@ -32594,7 +32594,7 @@
         <v>260</v>
       </c>
       <c r="F71" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71" s="8" t="str">
         <f t="shared" si="1"/>

--- a/Collections/Spain/#Spain#Regular#[1934-2001]#circulation_quality.xlsx
+++ b/Collections/Spain/#Spain#Regular#[1934-2001]#circulation_quality.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\Spain\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50C8023-FFF1-4318-AF76-4727B0B2362C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AFFF72-1345-4634-844A-1CCFD6DFE8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="5cêntimo" sheetId="3" r:id="rId1"/>
@@ -854,6 +854,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Пользователь Windows</author>
+    <author>Lord_Alexator</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0700-000001000000}">
@@ -900,6 +901,31 @@
           </rPr>
           <t>Fábrica Nacional de Moneda y Timbre - Real Casa de la Moneda
 (Royal Mint of Spain)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F27" authorId="1" shapeId="0" xr:uid="{C53F583F-CBAB-48F4-BEBB-7B5A0C4B9CCC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>5 видно относительно четко
+8 очень размыто</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
         </r>
       </text>
     </comment>
@@ -2348,7 +2374,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2435,6 +2461,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -6550,11 +6589,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomRight" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7373,7 +7412,7 @@
         <v>151</v>
       </c>
       <c r="F35" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35" s="8" t="str">
         <f t="shared" si="2"/>
@@ -18472,7 +18511,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24305,10 +24344,10 @@
   <dimension ref="A1:P77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="11" ySplit="2" topLeftCell="L33" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="11" ySplit="2" topLeftCell="L30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G73" sqref="G73"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -26093,7 +26132,7 @@
         <v>0</v>
       </c>
       <c r="J52" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K52" s="22" t="str">
         <f t="shared" si="0"/>
@@ -26124,7 +26163,7 @@
         <v>0</v>
       </c>
       <c r="H53" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I53" s="15" t="s">
         <v>0</v>
@@ -27348,10 +27387,10 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="2" topLeftCell="H30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -30965,11 +31004,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H36" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="7" ySplit="2" topLeftCell="H33" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E68" sqref="E68"/>
+      <selection pane="bottomRight" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -31598,7 +31637,7 @@
         <v>108</v>
       </c>
       <c r="F27" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" s="8" t="str">
         <f t="shared" si="1"/>
@@ -31642,7 +31681,7 @@
         <v>111</v>
       </c>
       <c r="F29" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="8" t="str">
         <f t="shared" si="1"/>
@@ -32082,7 +32121,7 @@
         <v>221</v>
       </c>
       <c r="F49" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G49" s="8" t="str">
         <f t="shared" si="1"/>
@@ -32126,7 +32165,7 @@
         <v>223</v>
       </c>
       <c r="F51" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51" s="8" t="str">
         <f t="shared" si="1"/>
@@ -32170,7 +32209,7 @@
         <v>224</v>
       </c>
       <c r="F53" s="15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G53" s="8" t="str">
         <f t="shared" si="1"/>
@@ -32874,7 +32913,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H21" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2:F2"/>
+      <selection pane="bottomRight" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
